--- a/LIGUEONE_SPREAD.xlsx
+++ b/LIGUEONE_SPREAD.xlsx
@@ -3799,7 +3799,7 @@
         <v>21.0</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="BO6" t="n">
         <v>0.0</v>
@@ -4417,7 +4417,7 @@
         <v>46.0</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.0</v>
+        <v>46.0</v>
       </c>
       <c r="BO9" t="n">
         <v>0.0</v>
@@ -5241,7 +5241,7 @@
         <v>46.0</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.0</v>
+        <v>46.0</v>
       </c>
       <c r="BO13" t="n">
         <v>2.0</v>
@@ -5447,7 +5447,7 @@
         <v>32.0</v>
       </c>
       <c r="BN14" t="n">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="BO14" t="n">
         <v>0.0</v>
@@ -5653,7 +5653,7 @@
         <v>47.0</v>
       </c>
       <c r="BN15" t="n">
-        <v>0.0</v>
+        <v>47.0</v>
       </c>
       <c r="BO15" t="n">
         <v>0.0</v>
@@ -6889,7 +6889,7 @@
         <v>73.0</v>
       </c>
       <c r="BN21" t="n">
-        <v>0.0</v>
+        <v>73.0</v>
       </c>
       <c r="BO21" t="n">
         <v>0.0</v>
@@ -7095,7 +7095,7 @@
         <v>19.0</v>
       </c>
       <c r="BN22" t="n">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="BO22" t="n">
         <v>0.0</v>
@@ -8537,7 +8537,7 @@
         <v>26.0</v>
       </c>
       <c r="BN29" t="n">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="BO29" t="n">
         <v>0.0</v>
@@ -9773,7 +9773,7 @@
         <v>25.0</v>
       </c>
       <c r="BN35" t="n">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="BO35" t="n">
         <v>0.0</v>
@@ -11009,7 +11009,7 @@
         <v>68.0</v>
       </c>
       <c r="BN41" t="n">
-        <v>0.0</v>
+        <v>68.0</v>
       </c>
       <c r="BO41" t="n">
         <v>0.0</v>
@@ -12863,7 +12863,7 @@
         <v>0.0</v>
       </c>
       <c r="BN50" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="BO50" t="n">
         <v>0.0</v>
@@ -13687,7 +13687,7 @@
         <v>73.0</v>
       </c>
       <c r="BN54" t="n">
-        <v>0.0</v>
+        <v>73.0</v>
       </c>
       <c r="BO54" t="n">
         <v>0.0</v>
@@ -15335,7 +15335,7 @@
         <v>0.0</v>
       </c>
       <c r="BN62" t="n">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="BO62" t="n">
         <v>0.0</v>
@@ -16159,7 +16159,7 @@
         <v>21.0</v>
       </c>
       <c r="BN66" t="n">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="BO66" t="n">
         <v>0.0</v>
@@ -16365,7 +16365,7 @@
         <v>83.0</v>
       </c>
       <c r="BN67" t="n">
-        <v>0.0</v>
+        <v>83.0</v>
       </c>
       <c r="BO67" t="n">
         <v>1.0</v>
@@ -16571,7 +16571,7 @@
         <v>12.0</v>
       </c>
       <c r="BN68" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="BO68" t="n">
         <v>0.0</v>
@@ -17395,7 +17395,7 @@
         <v>0.0</v>
       </c>
       <c r="BN72" t="n">
-        <v>0.0</v>
+        <v>42.0</v>
       </c>
       <c r="BO72" t="n">
         <v>0.0</v>
@@ -17807,7 +17807,7 @@
         <v>0.0</v>
       </c>
       <c r="BN74" t="n">
-        <v>0.0</v>
+        <v>82.0</v>
       </c>
       <c r="BO74" t="n">
         <v>1.0</v>
@@ -18219,7 +18219,7 @@
         <v>48.0</v>
       </c>
       <c r="BN76" t="n">
-        <v>0.0</v>
+        <v>48.0</v>
       </c>
       <c r="BO76" t="n">
         <v>0.0</v>
@@ -18837,7 +18837,7 @@
         <v>0.0</v>
       </c>
       <c r="BN79" t="n">
-        <v>0.0</v>
+        <v>59.0</v>
       </c>
       <c r="BO79" t="n">
         <v>0.0</v>
@@ -19455,7 +19455,7 @@
         <v>61.0</v>
       </c>
       <c r="BN82" t="n">
-        <v>0.0</v>
+        <v>61.0</v>
       </c>
       <c r="BO82" t="n">
         <v>1.0</v>
@@ -21103,7 +21103,7 @@
         <v>0.0</v>
       </c>
       <c r="BN90" t="n">
-        <v>0.0</v>
+        <v>82.0</v>
       </c>
       <c r="BO90" t="n">
         <v>0.0</v>
@@ -22133,7 +22133,7 @@
         <v>0.0</v>
       </c>
       <c r="BN95" t="n">
-        <v>0.0</v>
+        <v>51.0</v>
       </c>
       <c r="BO95" t="n">
         <v>0.0</v>
@@ -22751,7 +22751,7 @@
         <v>17.0</v>
       </c>
       <c r="BN98" t="n">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="BO98" t="n">
         <v>0.0</v>
@@ -22957,7 +22957,7 @@
         <v>5.0</v>
       </c>
       <c r="BN99" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="BO99" t="n">
         <v>0.0</v>
@@ -23163,7 +23163,7 @@
         <v>0.0</v>
       </c>
       <c r="BN100" t="n">
-        <v>0.0</v>
+        <v>51.0</v>
       </c>
       <c r="BO100" t="n">
         <v>0.0</v>
@@ -24605,7 +24605,7 @@
         <v>59.0</v>
       </c>
       <c r="BN107" t="n">
-        <v>0.0</v>
+        <v>59.0</v>
       </c>
       <c r="BO107" t="n">
         <v>1.0</v>
@@ -25223,7 +25223,7 @@
         <v>33.0</v>
       </c>
       <c r="BN110" t="n">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="BO110" t="n">
         <v>0.0</v>
@@ -26871,7 +26871,7 @@
         <v>0.0</v>
       </c>
       <c r="BN118" t="n">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="BO118" t="n">
         <v>1.0</v>
@@ -27077,7 +27077,7 @@
         <v>0.0</v>
       </c>
       <c r="BN119" t="n">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="BO119" t="n">
         <v>0.0</v>
@@ -28725,7 +28725,7 @@
         <v>0.0</v>
       </c>
       <c r="BN127" t="n">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="BO127" t="n">
         <v>0.0</v>
@@ -31197,7 +31197,7 @@
         <v>21.0</v>
       </c>
       <c r="BN139" t="n">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="BO139" t="n">
         <v>0.0</v>
@@ -32227,7 +32227,7 @@
         <v>67.0</v>
       </c>
       <c r="BN144" t="n">
-        <v>0.0</v>
+        <v>67.0</v>
       </c>
       <c r="BO144" t="n">
         <v>0.0</v>
@@ -32845,7 +32845,7 @@
         <v>33.0</v>
       </c>
       <c r="BN147" t="n">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="BO147" t="n">
         <v>1.0</v>
@@ -33669,7 +33669,7 @@
         <v>32.0</v>
       </c>
       <c r="BN151" t="n">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="BO151" t="n">
         <v>0.0</v>
@@ -34905,7 +34905,7 @@
         <v>0.0</v>
       </c>
       <c r="BN157" t="n">
-        <v>0.0</v>
+        <v>79.0</v>
       </c>
       <c r="BO157" t="n">
         <v>1.0</v>
@@ -35935,7 +35935,7 @@
         <v>0.0</v>
       </c>
       <c r="BN162" t="n">
-        <v>0.0</v>
+        <v>87.0</v>
       </c>
       <c r="BO162" t="n">
         <v>0.0</v>
@@ -36141,7 +36141,7 @@
         <v>52.0</v>
       </c>
       <c r="BN163" t="n">
-        <v>0.0</v>
+        <v>52.0</v>
       </c>
       <c r="BO163" t="n">
         <v>1.0</v>
@@ -39025,7 +39025,7 @@
         <v>25.0</v>
       </c>
       <c r="BN177" t="n">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="BO177" t="n">
         <v>0.0</v>
@@ -40055,7 +40055,7 @@
         <v>0.0</v>
       </c>
       <c r="BN182" t="n">
-        <v>0.0</v>
+        <v>82.0</v>
       </c>
       <c r="BO182" t="n">
         <v>0.0</v>
@@ -41909,7 +41909,7 @@
         <v>9.0</v>
       </c>
       <c r="BN191" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="BO191" t="n">
         <v>0.0</v>
@@ -42321,7 +42321,7 @@
         <v>0.0</v>
       </c>
       <c r="BN193" t="n">
-        <v>0.0</v>
+        <v>77.0</v>
       </c>
       <c r="BO193" t="n">
         <v>1.0</v>
@@ -43145,7 +43145,7 @@
         <v>0.0</v>
       </c>
       <c r="BN197" t="n">
-        <v>0.0</v>
+        <v>66.0</v>
       </c>
       <c r="BO197" t="n">
         <v>1.0</v>
@@ -43969,7 +43969,7 @@
         <v>67.0</v>
       </c>
       <c r="BN201" t="n">
-        <v>0.0</v>
+        <v>67.0</v>
       </c>
       <c r="BO201" t="n">
         <v>0.0</v>
@@ -44175,7 +44175,7 @@
         <v>0.0</v>
       </c>
       <c r="BN202" t="n">
-        <v>0.0</v>
+        <v>69.0</v>
       </c>
       <c r="BO202" t="n">
         <v>1.0</v>
@@ -44999,7 +44999,7 @@
         <v>0.0</v>
       </c>
       <c r="BN206" t="n">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="BO206" t="n">
         <v>1.0</v>
@@ -47265,7 +47265,7 @@
         <v>29.0</v>
       </c>
       <c r="BN217" t="n">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="BO217" t="n">
         <v>1.0</v>
@@ -49943,7 +49943,7 @@
         <v>0.0</v>
       </c>
       <c r="BN230" t="n">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="BO230" t="n">
         <v>0.0</v>
@@ -50973,7 +50973,7 @@
         <v>38.0</v>
       </c>
       <c r="BN235" t="n">
-        <v>0.0</v>
+        <v>38.0</v>
       </c>
       <c r="BO235" t="n">
         <v>1.0</v>
@@ -52827,7 +52827,7 @@
         <v>15.0</v>
       </c>
       <c r="BN244" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="BO244" t="n">
         <v>0.0</v>
@@ -53445,7 +53445,7 @@
         <v>0.0</v>
       </c>
       <c r="BN247" t="n">
-        <v>0.0</v>
+        <v>77.0</v>
       </c>
       <c r="BO247" t="n">
         <v>0.0</v>
@@ -53651,7 +53651,7 @@
         <v>62.0</v>
       </c>
       <c r="BN248" t="n">
-        <v>0.0</v>
+        <v>62.0</v>
       </c>
       <c r="BO248" t="n">
         <v>0.0</v>
@@ -54269,7 +54269,7 @@
         <v>0.0</v>
       </c>
       <c r="BN251" t="n">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="BO251" t="n">
         <v>0.0</v>
@@ -56123,7 +56123,7 @@
         <v>7.0</v>
       </c>
       <c r="BN260" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="BO260" t="n">
         <v>0.0</v>
@@ -59213,7 +59213,7 @@
         <v>54.0</v>
       </c>
       <c r="BN275" t="n">
-        <v>0.0</v>
+        <v>54.0</v>
       </c>
       <c r="BO275" t="n">
         <v>2.0</v>
@@ -62097,7 +62097,7 @@
         <v>0.0</v>
       </c>
       <c r="BN289" t="n">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="BO289" t="n">
         <v>0.0</v>
@@ -64157,7 +64157,7 @@
         <v>0.0</v>
       </c>
       <c r="BN299" t="n">
-        <v>0.0</v>
+        <v>82.0</v>
       </c>
       <c r="BO299" t="n">
         <v>1.0</v>
@@ -64363,7 +64363,7 @@
         <v>95.0</v>
       </c>
       <c r="BN300" t="n">
-        <v>0.0</v>
+        <v>95.0</v>
       </c>
       <c r="BO300" t="n">
         <v>0.0</v>

--- a/LIGUEONE_SPREAD.xlsx
+++ b/LIGUEONE_SPREAD.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="278">
   <si>
     <t>Div</t>
   </si>
@@ -359,6 +359,33 @@
     <t>45</t>
   </si>
   <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
     <t>F1</t>
   </si>
   <si>
@@ -587,6 +614,15 @@
     <t>10-3</t>
   </si>
   <si>
+    <t>11-4</t>
+  </si>
+  <si>
+    <t>6-2</t>
+  </si>
+  <si>
+    <t>8-4</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -726,6 +762,33 @@
   </si>
   <si>
     <t>Lyon-Marseille</t>
+  </si>
+  <si>
+    <t>Auxerre-Brest</t>
+  </si>
+  <si>
+    <t>Paris SG-Rennes</t>
+  </si>
+  <si>
+    <t>Lens-Nice</t>
+  </si>
+  <si>
+    <t>Le Havre-Lille</t>
+  </si>
+  <si>
+    <t>Monaco-Montpellier</t>
+  </si>
+  <si>
+    <t>Toulouse-Lyon</t>
+  </si>
+  <si>
+    <t>Angers-Reims</t>
+  </si>
+  <si>
+    <t>Nantes-St Etienne</t>
+  </si>
+  <si>
+    <t>Strasbourg-Marseille</t>
   </si>
   <si>
     <t/>
@@ -1055,16 +1118,16 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C2" t="n" s="2">
         <v>45520.0</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="F2" t="n">
         <v>1.0</v>
@@ -1073,7 +1136,7 @@
         <v>4.0</v>
       </c>
       <c r="H2" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="I2" t="n">
         <v>0.0</v>
@@ -1082,7 +1145,7 @@
         <v>1.0</v>
       </c>
       <c r="K2" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="L2" t="n">
         <v>7.84</v>
@@ -1094,10 +1157,10 @@
         <v>1.42</v>
       </c>
       <c r="O2" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="P2" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="Q2" t="n">
         <v>5.0</v>
@@ -1145,16 +1208,16 @@
         <v>18.0</v>
       </c>
       <c r="AF2" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="AG2" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AH2" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AI2" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AJ2" t="n">
         <v>3.0</v>
@@ -1163,10 +1226,10 @@
         <v>0.0</v>
       </c>
       <c r="AL2" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="AM2" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="AN2" t="n">
         <v>0.2</v>
@@ -1270,16 +1333,16 @@
         <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C3" t="n" s="2">
         <v>45521.0</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="E3" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="F3" t="n">
         <v>1.0</v>
@@ -1288,7 +1351,7 @@
         <v>5.0</v>
       </c>
       <c r="H3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="I3" t="n">
         <v>1.0</v>
@@ -1297,7 +1360,7 @@
         <v>3.0</v>
       </c>
       <c r="K3" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="L3" t="n">
         <v>2.96</v>
@@ -1309,10 +1372,10 @@
         <v>2.51</v>
       </c>
       <c r="O3" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="P3" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="Q3" t="n">
         <v>7.0</v>
@@ -1360,16 +1423,16 @@
         <v>18.0</v>
       </c>
       <c r="AF3" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AG3" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AH3" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AI3" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AJ3" t="n">
         <v>5.0</v>
@@ -1378,10 +1441,10 @@
         <v>0.0</v>
       </c>
       <c r="AL3" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="AM3" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="AN3" t="n">
         <v>1.3</v>
@@ -1485,16 +1548,16 @@
         <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C4" t="n" s="2">
         <v>45521.0</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="E4" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F4" t="n">
         <v>0.0</v>
@@ -1503,7 +1566,7 @@
         <v>2.0</v>
       </c>
       <c r="H4" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="I4" t="n">
         <v>0.0</v>
@@ -1512,7 +1575,7 @@
         <v>1.0</v>
       </c>
       <c r="K4" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="L4" t="n">
         <v>3.36</v>
@@ -1524,10 +1587,10 @@
         <v>2.27</v>
       </c>
       <c r="O4" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="P4" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="Q4" t="n">
         <v>2.0</v>
@@ -1575,16 +1638,16 @@
         <v>19.0</v>
       </c>
       <c r="AF4" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="AG4" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AH4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AI4" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AJ4" t="n">
         <v>4.0</v>
@@ -1593,10 +1656,10 @@
         <v>1.0</v>
       </c>
       <c r="AL4" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="AM4" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="AN4" t="n">
         <v>0.1</v>
@@ -1700,16 +1763,16 @@
         <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C5" t="n" s="2">
         <v>45521.0</v>
       </c>
       <c r="D5" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="F5" t="n">
         <v>1.0</v>
@@ -1718,7 +1781,7 @@
         <v>0.0</v>
       </c>
       <c r="H5" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="I5" t="n">
         <v>1.0</v>
@@ -1727,7 +1790,7 @@
         <v>0.0</v>
       </c>
       <c r="K5" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="L5" t="n">
         <v>1.51</v>
@@ -1739,10 +1802,10 @@
         <v>6.26</v>
       </c>
       <c r="O5" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="P5" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="Q5" t="n">
         <v>13.0</v>
@@ -1790,16 +1853,16 @@
         <v>27.0</v>
       </c>
       <c r="AF5" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="AG5" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AH5" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AI5" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AJ5" t="n">
         <v>2.0</v>
@@ -1808,10 +1871,10 @@
         <v>0.0</v>
       </c>
       <c r="AL5" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="AM5" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="AN5" t="n">
         <v>2.0</v>
@@ -1915,16 +1978,16 @@
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C6" t="n" s="2">
         <v>45522.0</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="E6" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="F6" t="n">
         <v>2.0</v>
@@ -1933,7 +1996,7 @@
         <v>1.0</v>
       </c>
       <c r="H6" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="I6" t="n">
         <v>1.0</v>
@@ -1942,7 +2005,7 @@
         <v>1.0</v>
       </c>
       <c r="K6" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="L6" t="n">
         <v>3.22</v>
@@ -1954,10 +2017,10 @@
         <v>2.45</v>
       </c>
       <c r="O6" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="P6" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="Q6" t="n">
         <v>16.0</v>
@@ -2005,16 +2068,16 @@
         <v>28.0</v>
       </c>
       <c r="AF6" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="AG6" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AH6" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AI6" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AJ6" t="n">
         <v>0.0</v>
@@ -2023,10 +2086,10 @@
         <v>0.0</v>
       </c>
       <c r="AL6" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="AM6" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="AN6" t="n">
         <v>1.8</v>
@@ -2130,16 +2193,16 @@
         <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C7" t="n" s="2">
         <v>45522.0</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="E7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="F7" t="n">
         <v>0.0</v>
@@ -2148,7 +2211,7 @@
         <v>1.0</v>
       </c>
       <c r="H7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="I7" t="n">
         <v>0.0</v>
@@ -2157,7 +2220,7 @@
         <v>1.0</v>
       </c>
       <c r="K7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="L7" t="n">
         <v>5.66</v>
@@ -2169,10 +2232,10 @@
         <v>1.65</v>
       </c>
       <c r="O7" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="P7" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="Q7" t="n">
         <v>4.0</v>
@@ -2220,16 +2283,16 @@
         <v>16.0</v>
       </c>
       <c r="AF7" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="AG7" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AH7" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AI7" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AJ7" t="n">
         <v>1.0</v>
@@ -2238,10 +2301,10 @@
         <v>0.0</v>
       </c>
       <c r="AL7" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="AM7" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="AN7" t="n">
         <v>0.4</v>
@@ -2345,16 +2408,16 @@
         <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C8" t="n" s="2">
         <v>45522.0</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F8" t="n">
         <v>1.0</v>
@@ -2363,7 +2426,7 @@
         <v>1.0</v>
       </c>
       <c r="H8" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="I8" t="n">
         <v>0.0</v>
@@ -2372,7 +2435,7 @@
         <v>0.0</v>
       </c>
       <c r="K8" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="L8" t="n">
         <v>2.12</v>
@@ -2384,10 +2447,10 @@
         <v>3.8</v>
       </c>
       <c r="O8" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="P8" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="Q8" t="n">
         <v>7.0</v>
@@ -2435,16 +2498,16 @@
         <v>38.0</v>
       </c>
       <c r="AF8" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="AG8" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AH8" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AI8" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AJ8" t="n">
         <v>7.0</v>
@@ -2453,10 +2516,10 @@
         <v>0.0</v>
       </c>
       <c r="AL8" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="AM8" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="AN8" t="n">
         <v>1.3</v>
@@ -2560,16 +2623,16 @@
         <v>77</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C9" t="n" s="2">
         <v>45522.0</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="E9" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F9" t="n">
         <v>0.0</v>
@@ -2578,7 +2641,7 @@
         <v>0.0</v>
       </c>
       <c r="H9" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="I9" t="n">
         <v>0.0</v>
@@ -2587,7 +2650,7 @@
         <v>0.0</v>
       </c>
       <c r="K9" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="L9" t="n">
         <v>2.11</v>
@@ -2599,10 +2662,10 @@
         <v>3.92</v>
       </c>
       <c r="O9" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="P9" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="Q9" t="n">
         <v>7.0</v>
@@ -2650,16 +2713,16 @@
         <v>18.0</v>
       </c>
       <c r="AF9" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="AG9" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AH9" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AI9" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AJ9" t="n">
         <v>4.0</v>
@@ -2668,10 +2731,10 @@
         <v>0.0</v>
       </c>
       <c r="AL9" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="AM9" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="AN9" t="n">
         <v>1.7</v>
@@ -2775,16 +2838,16 @@
         <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C10" t="n" s="2">
         <v>45522.0</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="E10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="F10" t="n">
         <v>3.0</v>
@@ -2793,7 +2856,7 @@
         <v>0.0</v>
       </c>
       <c r="H10" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="I10" t="n">
         <v>2.0</v>
@@ -2802,7 +2865,7 @@
         <v>0.0</v>
       </c>
       <c r="K10" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="L10" t="n">
         <v>2.47</v>
@@ -2814,10 +2877,10 @@
         <v>3.01</v>
       </c>
       <c r="O10" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="P10" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="Q10" t="n">
         <v>22.0</v>
@@ -2865,16 +2928,16 @@
         <v>25.0</v>
       </c>
       <c r="AF10" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="AG10" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AH10" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AI10" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AJ10" t="n">
         <v>3.0</v>
@@ -2883,10 +2946,10 @@
         <v>0.0</v>
       </c>
       <c r="AL10" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="AM10" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="AN10" t="n">
         <v>2.0</v>
@@ -2990,16 +3053,16 @@
         <v>79</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C11" t="n" s="2">
         <v>45527.0</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E11" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="F11" t="n">
         <v>6.0</v>
@@ -3008,7 +3071,7 @@
         <v>0.0</v>
       </c>
       <c r="H11" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="I11" t="n">
         <v>2.0</v>
@@ -3017,7 +3080,7 @@
         <v>0.0</v>
       </c>
       <c r="K11" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="L11" t="n">
         <v>1.25</v>
@@ -3029,10 +3092,10 @@
         <v>10.85</v>
       </c>
       <c r="O11" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="P11" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="Q11" t="n">
         <v>21.0</v>
@@ -3080,16 +3143,16 @@
         <v>25.0</v>
       </c>
       <c r="AF11" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="AG11" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AH11" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AI11" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AJ11" t="n">
         <v>5.0</v>
@@ -3098,10 +3161,10 @@
         <v>0.0</v>
       </c>
       <c r="AL11" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="AM11" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="AN11" t="n">
         <v>3.8</v>
@@ -3205,16 +3268,16 @@
         <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C12" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="E12" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="F12" t="n">
         <v>0.0</v>
@@ -3223,7 +3286,7 @@
         <v>2.0</v>
       </c>
       <c r="H12" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="I12" t="n">
         <v>0.0</v>
@@ -3232,7 +3295,7 @@
         <v>0.0</v>
       </c>
       <c r="K12" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="L12" t="n">
         <v>2.62</v>
@@ -3244,10 +3307,10 @@
         <v>2.61</v>
       </c>
       <c r="O12" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="P12" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="Q12" t="n">
         <v>2.0</v>
@@ -3295,16 +3358,16 @@
         <v>17.0</v>
       </c>
       <c r="AF12" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="AG12" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AH12" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AI12" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AJ12" t="n">
         <v>0.0</v>
@@ -3313,10 +3376,10 @@
         <v>1.0</v>
       </c>
       <c r="AL12" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="AM12" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="AN12" t="n">
         <v>0.0</v>
@@ -3420,16 +3483,16 @@
         <v>81</v>
       </c>
       <c r="B13" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C13" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D13" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="E13" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="F13" t="n">
         <v>2.0</v>
@@ -3438,7 +3501,7 @@
         <v>0.0</v>
       </c>
       <c r="H13" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="I13" t="n">
         <v>1.0</v>
@@ -3447,7 +3510,7 @@
         <v>0.0</v>
       </c>
       <c r="K13" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="L13" t="n">
         <v>1.33</v>
@@ -3459,10 +3522,10 @@
         <v>8.77</v>
       </c>
       <c r="O13" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="P13" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="Q13" t="n">
         <v>11.0</v>
@@ -3510,16 +3573,16 @@
         <v>26.0</v>
       </c>
       <c r="AF13" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="AG13" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AH13" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AI13" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AJ13" t="n">
         <v>3.0</v>
@@ -3528,10 +3591,10 @@
         <v>0.0</v>
       </c>
       <c r="AL13" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AM13" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="AN13" t="n">
         <v>0.9</v>
@@ -3635,16 +3698,16 @@
         <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C14" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D14" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E14" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="F14" t="n">
         <v>0.0</v>
@@ -3653,7 +3716,7 @@
         <v>2.0</v>
       </c>
       <c r="H14" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="I14" t="n">
         <v>0.0</v>
@@ -3662,7 +3725,7 @@
         <v>0.0</v>
       </c>
       <c r="K14" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="L14" t="n">
         <v>2.11</v>
@@ -3674,10 +3737,10 @@
         <v>3.71</v>
       </c>
       <c r="O14" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="P14" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="Q14" t="n">
         <v>18.0</v>
@@ -3725,16 +3788,16 @@
         <v>20.0</v>
       </c>
       <c r="AF14" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="AG14" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AH14" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AI14" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AJ14" t="n">
         <v>6.0</v>
@@ -3743,10 +3806,10 @@
         <v>0.0</v>
       </c>
       <c r="AL14" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AM14" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="AN14" t="n">
         <v>1.1</v>
@@ -3850,16 +3913,16 @@
         <v>83</v>
       </c>
       <c r="B15" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C15" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D15" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E15" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="F15" t="n">
         <v>2.0</v>
@@ -3868,7 +3931,7 @@
         <v>0.0</v>
       </c>
       <c r="H15" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="I15" t="n">
         <v>2.0</v>
@@ -3877,7 +3940,7 @@
         <v>0.0</v>
       </c>
       <c r="K15" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="L15" t="n">
         <v>1.81</v>
@@ -3889,10 +3952,10 @@
         <v>4.69</v>
       </c>
       <c r="O15" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="P15" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="Q15" t="n">
         <v>22.0</v>
@@ -3940,16 +4003,16 @@
         <v>14.0</v>
       </c>
       <c r="AF15" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="AG15" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AH15" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AI15" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AJ15" t="n">
         <v>0.0</v>
@@ -3958,10 +4021,10 @@
         <v>1.0</v>
       </c>
       <c r="AL15" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="AM15" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="AN15" t="n">
         <v>2.9</v>
@@ -4065,16 +4128,16 @@
         <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C16" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D16" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E16" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="F16" t="n">
         <v>2.0</v>
@@ -4083,7 +4146,7 @@
         <v>0.0</v>
       </c>
       <c r="H16" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="I16" t="n">
         <v>1.0</v>
@@ -4092,7 +4155,7 @@
         <v>0.0</v>
       </c>
       <c r="K16" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="L16" t="n">
         <v>2.25</v>
@@ -4104,10 +4167,10 @@
         <v>3.22</v>
       </c>
       <c r="O16" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="P16" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="Q16" t="n">
         <v>8.0</v>
@@ -4155,16 +4218,16 @@
         <v>15.0</v>
       </c>
       <c r="AF16" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="AG16" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AH16" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AI16" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AJ16" t="n">
         <v>0.0</v>
@@ -4173,10 +4236,10 @@
         <v>1.0</v>
       </c>
       <c r="AL16" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="AM16" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="AN16" t="n">
         <v>1.4</v>
@@ -4280,16 +4343,16 @@
         <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C17" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D17" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="E17" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="F17" t="n">
         <v>1.0</v>
@@ -4298,7 +4361,7 @@
         <v>1.0</v>
       </c>
       <c r="H17" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="I17" t="n">
         <v>0.0</v>
@@ -4307,7 +4370,7 @@
         <v>0.0</v>
       </c>
       <c r="K17" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="L17" t="n">
         <v>1.88</v>
@@ -4319,10 +4382,10 @@
         <v>4.57</v>
       </c>
       <c r="O17" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="P17" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="Q17" t="n">
         <v>10.0</v>
@@ -4370,16 +4433,16 @@
         <v>32.0</v>
       </c>
       <c r="AF17" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="AG17" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AH17" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AI17" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AJ17" t="n">
         <v>5.0</v>
@@ -4388,10 +4451,10 @@
         <v>0.0</v>
       </c>
       <c r="AL17" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="AM17" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="AN17" t="n">
         <v>1.3</v>
@@ -4495,16 +4558,16 @@
         <v>86</v>
       </c>
       <c r="B18" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C18" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D18" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="E18" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="F18" t="n">
         <v>3.0</v>
@@ -4513,7 +4576,7 @@
         <v>1.0</v>
       </c>
       <c r="H18" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="I18" t="n">
         <v>1.0</v>
@@ -4522,7 +4585,7 @@
         <v>0.0</v>
       </c>
       <c r="K18" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="L18" t="n">
         <v>3.19</v>
@@ -4534,10 +4597,10 @@
         <v>2.3</v>
       </c>
       <c r="O18" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="P18" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="Q18" t="n">
         <v>9.0</v>
@@ -4585,16 +4648,16 @@
         <v>26.0</v>
       </c>
       <c r="AF18" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="AG18" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AH18" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AI18" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AJ18" t="n">
         <v>6.0</v>
@@ -4603,10 +4666,10 @@
         <v>0.0</v>
       </c>
       <c r="AL18" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="AM18" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="AN18" t="n">
         <v>0.7</v>
@@ -4710,16 +4773,16 @@
         <v>87</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C19" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D19" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="E19" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="F19" t="n">
         <v>2.0</v>
@@ -4728,7 +4791,7 @@
         <v>2.0</v>
       </c>
       <c r="H19" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="I19" t="n">
         <v>1.0</v>
@@ -4737,7 +4800,7 @@
         <v>0.0</v>
       </c>
       <c r="K19" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="L19" t="n">
         <v>1.56</v>
@@ -4749,10 +4812,10 @@
         <v>5.84</v>
       </c>
       <c r="O19" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="P19" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="Q19" t="n">
         <v>16.0</v>
@@ -4800,16 +4863,16 @@
         <v>23.0</v>
       </c>
       <c r="AF19" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="AG19" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AH19" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AI19" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AJ19" t="n">
         <v>2.0</v>
@@ -4818,10 +4881,10 @@
         <v>0.0</v>
       </c>
       <c r="AL19" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="AM19" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="AN19" t="n">
         <v>3.0</v>
@@ -4925,16 +4988,16 @@
         <v>88</v>
       </c>
       <c r="B20" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C20" t="n" s="2">
         <v>45534.0</v>
       </c>
       <c r="D20" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="E20" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F20" t="n">
         <v>4.0</v>
@@ -4943,7 +5006,7 @@
         <v>3.0</v>
       </c>
       <c r="H20" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="I20" t="n">
         <v>1.0</v>
@@ -4952,7 +5015,7 @@
         <v>1.0</v>
       </c>
       <c r="K20" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="L20" t="n">
         <v>1.89</v>
@@ -4964,10 +5027,10 @@
         <v>4.18</v>
       </c>
       <c r="O20" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="P20" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="Q20" t="n">
         <v>22.0</v>
@@ -5015,16 +5078,16 @@
         <v>16.0</v>
       </c>
       <c r="AF20" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="AG20" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AH20" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AI20" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AJ20" t="n">
         <v>5.0</v>
@@ -5033,10 +5096,10 @@
         <v>0.0</v>
       </c>
       <c r="AL20" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="AM20" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="AN20" t="n">
         <v>2.9</v>
@@ -5140,16 +5203,16 @@
         <v>89</v>
       </c>
       <c r="B21" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C21" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D21" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="E21" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="F21" t="n">
         <v>4.0</v>
@@ -5158,7 +5221,7 @@
         <v>0.0</v>
       </c>
       <c r="H21" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="I21" t="n">
         <v>2.0</v>
@@ -5167,7 +5230,7 @@
         <v>0.0</v>
       </c>
       <c r="K21" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="L21" t="n">
         <v>1.85</v>
@@ -5179,10 +5242,10 @@
         <v>4.28</v>
       </c>
       <c r="O21" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="P21" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="Q21" t="n">
         <v>17.0</v>
@@ -5230,16 +5293,16 @@
         <v>40.0</v>
       </c>
       <c r="AF21" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="AG21" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AH21" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AI21" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AJ21" t="n">
         <v>5.0</v>
@@ -5248,10 +5311,10 @@
         <v>0.0</v>
       </c>
       <c r="AL21" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="AM21" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="AN21" t="n">
         <v>3.1</v>
@@ -5355,16 +5418,16 @@
         <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C22" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D22" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E22" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F22" t="n">
         <v>1.0</v>
@@ -5373,7 +5436,7 @@
         <v>3.0</v>
       </c>
       <c r="H22" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="I22" t="n">
         <v>1.0</v>
@@ -5382,7 +5445,7 @@
         <v>2.0</v>
       </c>
       <c r="K22" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="L22" t="n">
         <v>2.35</v>
@@ -5394,10 +5457,10 @@
         <v>3.22</v>
       </c>
       <c r="O22" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="P22" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="Q22" t="n">
         <v>11.0</v>
@@ -5445,16 +5508,16 @@
         <v>24.0</v>
       </c>
       <c r="AF22" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="AG22" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AH22" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AI22" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AJ22" t="n">
         <v>4.0</v>
@@ -5463,10 +5526,10 @@
         <v>0.0</v>
       </c>
       <c r="AL22" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="AM22" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="AN22" t="n">
         <v>0.9</v>
@@ -5570,16 +5633,16 @@
         <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C23" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D23" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="E23" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="F23" t="n">
         <v>1.0</v>
@@ -5588,7 +5651,7 @@
         <v>3.0</v>
       </c>
       <c r="H23" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="I23" t="n">
         <v>0.0</v>
@@ -5597,7 +5660,7 @@
         <v>2.0</v>
       </c>
       <c r="K23" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="L23" t="n">
         <v>4.09</v>
@@ -5609,10 +5672,10 @@
         <v>1.91</v>
       </c>
       <c r="O23" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="P23" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="Q23" t="n">
         <v>4.0</v>
@@ -5660,16 +5723,16 @@
         <v>22.0</v>
       </c>
       <c r="AF23" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="AG23" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AH23" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AI23" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AJ23" t="n">
         <v>6.0</v>
@@ -5678,10 +5741,10 @@
         <v>1.0</v>
       </c>
       <c r="AL23" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="AM23" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="AN23" t="n">
         <v>1.0</v>
@@ -5785,16 +5848,16 @@
         <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C24" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D24" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E24" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="F24" t="n">
         <v>1.0</v>
@@ -5803,7 +5866,7 @@
         <v>1.0</v>
       </c>
       <c r="H24" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="I24" t="n">
         <v>0.0</v>
@@ -5812,7 +5875,7 @@
         <v>0.0</v>
       </c>
       <c r="K24" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="L24" t="n">
         <v>1.83</v>
@@ -5824,10 +5887,10 @@
         <v>3.9</v>
       </c>
       <c r="O24" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="P24" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="Q24" t="n">
         <v>14.0</v>
@@ -5875,16 +5938,16 @@
         <v>32.0</v>
       </c>
       <c r="AF24" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="AG24" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AH24" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AI24" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AJ24" t="n">
         <v>5.0</v>
@@ -5893,10 +5956,10 @@
         <v>0.0</v>
       </c>
       <c r="AL24" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="AM24" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="AN24" t="n">
         <v>1.0</v>
@@ -6000,16 +6063,16 @@
         <v>93</v>
       </c>
       <c r="B25" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C25" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D25" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="E25" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="F25" t="n">
         <v>1.0</v>
@@ -6018,7 +6081,7 @@
         <v>4.0</v>
       </c>
       <c r="H25" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="I25" t="n">
         <v>0.0</v>
@@ -6027,7 +6090,7 @@
         <v>2.0</v>
       </c>
       <c r="K25" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="L25" t="n">
         <v>4.2</v>
@@ -6039,10 +6102,10 @@
         <v>2.01</v>
       </c>
       <c r="O25" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="P25" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="Q25" t="n">
         <v>12.0</v>
@@ -6090,16 +6153,16 @@
         <v>27.0</v>
       </c>
       <c r="AF25" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="AG25" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AH25" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AI25" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AJ25" t="n">
         <v>10.0</v>
@@ -6108,10 +6171,10 @@
         <v>1.0</v>
       </c>
       <c r="AL25" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="AM25" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="AN25" t="n">
         <v>1.4</v>
@@ -6215,16 +6278,16 @@
         <v>94</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C26" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D26" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="E26" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="F26" t="n">
         <v>3.0</v>
@@ -6233,7 +6296,7 @@
         <v>1.0</v>
       </c>
       <c r="H26" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="I26" t="n">
         <v>1.0</v>
@@ -6242,7 +6305,7 @@
         <v>1.0</v>
       </c>
       <c r="K26" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="L26" t="n">
         <v>2.81</v>
@@ -6254,10 +6317,10 @@
         <v>2.69</v>
       </c>
       <c r="O26" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="P26" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="Q26" t="n">
         <v>21.0</v>
@@ -6305,16 +6368,16 @@
         <v>25.0</v>
       </c>
       <c r="AF26" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="AG26" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AH26" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AI26" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AJ26" t="n">
         <v>6.0</v>
@@ -6323,10 +6386,10 @@
         <v>1.0</v>
       </c>
       <c r="AL26" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="AM26" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="AN26" t="n">
         <v>2.8</v>
@@ -6430,16 +6493,16 @@
         <v>95</v>
       </c>
       <c r="B27" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C27" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D27" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="E27" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="F27" t="n">
         <v>2.0</v>
@@ -6448,7 +6511,7 @@
         <v>1.0</v>
       </c>
       <c r="H27" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="I27" t="n">
         <v>1.0</v>
@@ -6457,7 +6520,7 @@
         <v>1.0</v>
       </c>
       <c r="K27" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="L27" t="n">
         <v>2.94</v>
@@ -6469,10 +6532,10 @@
         <v>2.37</v>
       </c>
       <c r="O27" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="P27" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="Q27" t="n">
         <v>11.0</v>
@@ -6520,16 +6583,16 @@
         <v>21.0</v>
       </c>
       <c r="AF27" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="AG27" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AH27" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AI27" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AJ27" t="n">
         <v>3.0</v>
@@ -6538,10 +6601,10 @@
         <v>0.0</v>
       </c>
       <c r="AL27" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="AM27" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="AN27" t="n">
         <v>1.4</v>
@@ -6645,16 +6708,16 @@
         <v>96</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C28" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D28" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="E28" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="F28" t="n">
         <v>1.0</v>
@@ -6663,7 +6726,7 @@
         <v>3.0</v>
       </c>
       <c r="H28" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="I28" t="n">
         <v>0.0</v>
@@ -6672,7 +6735,7 @@
         <v>2.0</v>
       </c>
       <c r="K28" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="L28" t="n">
         <v>4.31</v>
@@ -6684,10 +6747,10 @@
         <v>1.86</v>
       </c>
       <c r="O28" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="P28" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="Q28" t="n">
         <v>10.0</v>
@@ -6735,16 +6798,16 @@
         <v>12.0</v>
       </c>
       <c r="AF28" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="AG28" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AH28" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AI28" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AJ28" t="n">
         <v>5.0</v>
@@ -6753,10 +6816,10 @@
         <v>0.0</v>
       </c>
       <c r="AL28" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="AM28" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="AN28" t="n">
         <v>1.4</v>
@@ -6860,16 +6923,16 @@
         <v>97</v>
       </c>
       <c r="B29" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C29" t="n" s="2">
         <v>45548.0</v>
       </c>
       <c r="D29" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E29" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F29" t="n">
         <v>1.0</v>
@@ -6878,7 +6941,7 @@
         <v>0.0</v>
       </c>
       <c r="H29" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="I29" t="n">
         <v>1.0</v>
@@ -6887,7 +6950,7 @@
         <v>0.0</v>
       </c>
       <c r="K29" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="L29" t="n">
         <v>5.22</v>
@@ -6899,10 +6962,10 @@
         <v>1.72</v>
       </c>
       <c r="O29" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="P29" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="Q29" t="n">
         <v>10.0</v>
@@ -6950,16 +7013,16 @@
         <v>22.0</v>
       </c>
       <c r="AF29" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="AG29" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AH29" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AI29" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AJ29" t="n">
         <v>2.0</v>
@@ -6968,10 +7031,10 @@
         <v>0.0</v>
       </c>
       <c r="AL29" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="AM29" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="AN29" t="n">
         <v>1.2</v>
@@ -7075,16 +7138,16 @@
         <v>98</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C30" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D30" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="E30" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="F30" t="n">
         <v>2.0</v>
@@ -7093,7 +7156,7 @@
         <v>0.0</v>
       </c>
       <c r="H30" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="I30" t="n">
         <v>1.0</v>
@@ -7102,7 +7165,7 @@
         <v>0.0</v>
       </c>
       <c r="K30" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="L30" t="n">
         <v>1.75</v>
@@ -7114,10 +7177,10 @@
         <v>4.6</v>
       </c>
       <c r="O30" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="P30" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="Q30" t="n">
         <v>10.0</v>
@@ -7165,16 +7228,16 @@
         <v>22.0</v>
       </c>
       <c r="AF30" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="AG30" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AH30" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AI30" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AJ30" t="n">
         <v>7.0</v>
@@ -7183,10 +7246,10 @@
         <v>1.0</v>
       </c>
       <c r="AL30" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="AM30" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="AN30" t="n">
         <v>0.7</v>
@@ -7290,16 +7353,16 @@
         <v>99</v>
       </c>
       <c r="B31" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C31" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D31" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="E31" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="F31" t="n">
         <v>0.0</v>
@@ -7308,7 +7371,7 @@
         <v>3.0</v>
       </c>
       <c r="H31" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="I31" t="n">
         <v>0.0</v>
@@ -7317,7 +7380,7 @@
         <v>2.0</v>
       </c>
       <c r="K31" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="L31" t="n">
         <v>4.02</v>
@@ -7329,10 +7392,10 @@
         <v>1.89</v>
       </c>
       <c r="O31" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="P31" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="Q31" t="n">
         <v>13.0</v>
@@ -7380,16 +7443,16 @@
         <v>29.0</v>
       </c>
       <c r="AF31" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="AG31" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AH31" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AI31" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AJ31" t="n">
         <v>3.0</v>
@@ -7398,10 +7461,10 @@
         <v>0.0</v>
       </c>
       <c r="AL31" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="AM31" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="AN31" t="n">
         <v>0.6</v>
@@ -7505,16 +7568,16 @@
         <v>100</v>
       </c>
       <c r="B32" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C32" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D32" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E32" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="F32" t="n">
         <v>3.0</v>
@@ -7523,7 +7586,7 @@
         <v>1.0</v>
       </c>
       <c r="H32" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="I32" t="n">
         <v>1.0</v>
@@ -7532,7 +7595,7 @@
         <v>1.0</v>
       </c>
       <c r="K32" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="L32" t="n">
         <v>1.28</v>
@@ -7544,10 +7607,10 @@
         <v>9.59</v>
       </c>
       <c r="O32" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="P32" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="Q32" t="n">
         <v>22.0</v>
@@ -7595,16 +7658,16 @@
         <v>20.0</v>
       </c>
       <c r="AF32" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="AG32" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AH32" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AI32" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AJ32" t="n">
         <v>5.0</v>
@@ -7613,10 +7676,10 @@
         <v>0.0</v>
       </c>
       <c r="AL32" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="AM32" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="AN32" t="n">
         <v>2.8</v>
@@ -7720,16 +7783,16 @@
         <v>101</v>
       </c>
       <c r="B33" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C33" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D33" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="E33" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="F33" t="n">
         <v>3.0</v>
@@ -7738,7 +7801,7 @@
         <v>0.0</v>
       </c>
       <c r="H33" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="I33" t="n">
         <v>2.0</v>
@@ -7747,7 +7810,7 @@
         <v>0.0</v>
       </c>
       <c r="K33" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="L33" t="n">
         <v>1.63</v>
@@ -7759,10 +7822,10 @@
         <v>5.16</v>
       </c>
       <c r="O33" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="P33" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="Q33" t="n">
         <v>11.0</v>
@@ -7810,16 +7873,16 @@
         <v>17.0</v>
       </c>
       <c r="AF33" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="AG33" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AH33" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AI33" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AJ33" t="n">
         <v>4.0</v>
@@ -7828,10 +7891,10 @@
         <v>0.0</v>
       </c>
       <c r="AL33" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="AM33" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="AN33" t="n">
         <v>1.3</v>
@@ -7935,16 +7998,16 @@
         <v>102</v>
       </c>
       <c r="B34" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C34" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D34" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E34" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="F34" t="n">
         <v>1.0</v>
@@ -7953,7 +8016,7 @@
         <v>2.0</v>
       </c>
       <c r="H34" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="I34" t="n">
         <v>1.0</v>
@@ -7962,7 +8025,7 @@
         <v>1.0</v>
       </c>
       <c r="K34" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="L34" t="n">
         <v>2.43</v>
@@ -7974,10 +8037,10 @@
         <v>3.03</v>
       </c>
       <c r="O34" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="P34" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="Q34" t="n">
         <v>18.0</v>
@@ -8025,16 +8088,16 @@
         <v>19.0</v>
       </c>
       <c r="AF34" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="AG34" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AH34" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AI34" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AJ34" t="n">
         <v>4.0</v>
@@ -8043,10 +8106,10 @@
         <v>0.0</v>
       </c>
       <c r="AL34" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="AM34" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="AN34" t="n">
         <v>1.5</v>
@@ -8150,16 +8213,16 @@
         <v>103</v>
       </c>
       <c r="B35" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C35" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D35" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="E35" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="F35" t="n">
         <v>1.0</v>
@@ -8168,7 +8231,7 @@
         <v>1.0</v>
       </c>
       <c r="H35" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="I35" t="n">
         <v>1.0</v>
@@ -8177,7 +8240,7 @@
         <v>0.0</v>
       </c>
       <c r="K35" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="L35" t="n">
         <v>1.69</v>
@@ -8189,10 +8252,10 @@
         <v>5.31</v>
       </c>
       <c r="O35" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="P35" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="Q35" t="n">
         <v>10.0</v>
@@ -8240,16 +8303,16 @@
         <v>25.0</v>
       </c>
       <c r="AF35" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AG35" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AH35" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AI35" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AJ35" t="n">
         <v>5.0</v>
@@ -8258,10 +8321,10 @@
         <v>0.0</v>
       </c>
       <c r="AL35" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="AM35" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="AN35" t="n">
         <v>2.3</v>
@@ -8365,16 +8428,16 @@
         <v>104</v>
       </c>
       <c r="B36" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C36" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D36" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="E36" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="F36" t="n">
         <v>2.0</v>
@@ -8383,7 +8446,7 @@
         <v>0.0</v>
       </c>
       <c r="H36" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="I36" t="n">
         <v>0.0</v>
@@ -8392,7 +8455,7 @@
         <v>0.0</v>
       </c>
       <c r="K36" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="L36" t="n">
         <v>1.85</v>
@@ -8404,10 +8467,10 @@
         <v>4.37</v>
       </c>
       <c r="O36" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="P36" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="Q36" t="n">
         <v>15.0</v>
@@ -8455,16 +8518,16 @@
         <v>21.0</v>
       </c>
       <c r="AF36" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="AG36" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AH36" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AI36" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AJ36" t="n">
         <v>2.0</v>
@@ -8473,10 +8536,10 @@
         <v>0.0</v>
       </c>
       <c r="AL36" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="AM36" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="AN36" t="n">
         <v>1.3</v>
@@ -8580,16 +8643,16 @@
         <v>105</v>
       </c>
       <c r="B37" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C37" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D37" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E37" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="F37" t="n">
         <v>0.0</v>
@@ -8598,7 +8661,7 @@
         <v>0.0</v>
       </c>
       <c r="H37" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="I37" t="n">
         <v>0.0</v>
@@ -8607,7 +8670,7 @@
         <v>0.0</v>
       </c>
       <c r="K37" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="L37" t="n">
         <v>1.86</v>
@@ -8619,10 +8682,10 @@
         <v>4.18</v>
       </c>
       <c r="O37" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="P37" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="Q37" t="n">
         <v>12.0</v>
@@ -8670,16 +8733,16 @@
         <v>23.0</v>
       </c>
       <c r="AF37" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="AG37" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AH37" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AI37" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AJ37" t="n">
         <v>0.0</v>
@@ -8688,10 +8751,10 @@
         <v>0.0</v>
       </c>
       <c r="AL37" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="AM37" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="AN37" t="n">
         <v>1.0</v>
@@ -8795,16 +8858,16 @@
         <v>106</v>
       </c>
       <c r="B38" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C38" t="n" s="2">
         <v>45555.0</v>
       </c>
       <c r="D38" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="E38" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="F38" t="n">
         <v>8.0</v>
@@ -8813,7 +8876,7 @@
         <v>0.0</v>
       </c>
       <c r="H38" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="I38" t="n">
         <v>6.0</v>
@@ -8822,7 +8885,7 @@
         <v>0.0</v>
       </c>
       <c r="K38" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="L38" t="n">
         <v>1.55</v>
@@ -8834,10 +8897,10 @@
         <v>6.57</v>
       </c>
       <c r="O38" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="P38" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="Q38" t="n">
         <v>18.0</v>
@@ -8885,16 +8948,16 @@
         <v>20.0</v>
       </c>
       <c r="AF38" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="AG38" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AH38" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AI38" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AJ38" t="n">
         <v>1.0</v>
@@ -8903,10 +8966,10 @@
         <v>0.0</v>
       </c>
       <c r="AL38" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="AM38" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="AN38" t="n">
         <v>4.7</v>
@@ -9010,16 +9073,16 @@
         <v>107</v>
       </c>
       <c r="B39" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C39" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D39" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="E39" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F39" t="n">
         <v>3.0</v>
@@ -9028,7 +9091,7 @@
         <v>3.0</v>
       </c>
       <c r="H39" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="I39" t="n">
         <v>2.0</v>
@@ -9037,7 +9100,7 @@
         <v>2.0</v>
       </c>
       <c r="K39" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="L39" t="n">
         <v>1.74</v>
@@ -9049,10 +9112,10 @@
         <v>4.93</v>
       </c>
       <c r="O39" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="P39" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="Q39" t="n">
         <v>15.0</v>
@@ -9100,16 +9163,16 @@
         <v>28.0</v>
       </c>
       <c r="AF39" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="AG39" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AH39" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AI39" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AJ39" t="n">
         <v>4.0</v>
@@ -9118,10 +9181,10 @@
         <v>0.0</v>
       </c>
       <c r="AL39" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="AM39" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="AN39" t="n">
         <v>2.6</v>
@@ -9225,16 +9288,16 @@
         <v>108</v>
       </c>
       <c r="B40" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C40" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D40" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="E40" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="F40" t="n">
         <v>1.0</v>
@@ -9243,7 +9306,7 @@
         <v>1.0</v>
       </c>
       <c r="H40" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="I40" t="n">
         <v>1.0</v>
@@ -9252,7 +9315,7 @@
         <v>0.0</v>
       </c>
       <c r="K40" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="L40" t="n">
         <v>2.44</v>
@@ -9264,10 +9327,10 @@
         <v>3.09</v>
       </c>
       <c r="O40" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="P40" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="Q40" t="n">
         <v>11.0</v>
@@ -9315,16 +9378,16 @@
         <v>36.0</v>
       </c>
       <c r="AF40" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="AG40" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AH40" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AI40" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AJ40" t="n">
         <v>6.0</v>
@@ -9333,10 +9396,10 @@
         <v>0.0</v>
       </c>
       <c r="AL40" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="AM40" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="AN40" t="n">
         <v>1.4</v>
@@ -9440,16 +9503,16 @@
         <v>109</v>
       </c>
       <c r="B41" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C41" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D41" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="E41" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="F41" t="n">
         <v>1.0</v>
@@ -9458,7 +9521,7 @@
         <v>1.0</v>
       </c>
       <c r="H41" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="I41" t="n">
         <v>1.0</v>
@@ -9467,7 +9530,7 @@
         <v>0.0</v>
       </c>
       <c r="K41" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="L41" t="n">
         <v>6.91</v>
@@ -9479,10 +9542,10 @@
         <v>1.44</v>
       </c>
       <c r="O41" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="P41" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="Q41" t="n">
         <v>8.0</v>
@@ -9530,16 +9593,16 @@
         <v>17.0</v>
       </c>
       <c r="AF41" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="AG41" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AH41" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AI41" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AJ41" t="n">
         <v>3.0</v>
@@ -9548,10 +9611,10 @@
         <v>0.0</v>
       </c>
       <c r="AL41" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="AM41" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="AN41" t="n">
         <v>0.3</v>
@@ -9655,16 +9718,16 @@
         <v>110</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C42" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D42" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E42" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="F42" t="n">
         <v>3.0</v>
@@ -9673,7 +9736,7 @@
         <v>1.0</v>
       </c>
       <c r="H42" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="I42" t="n">
         <v>1.0</v>
@@ -9682,7 +9745,7 @@
         <v>1.0</v>
       </c>
       <c r="K42" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="L42" t="n">
         <v>1.38</v>
@@ -9694,10 +9757,10 @@
         <v>8.11</v>
       </c>
       <c r="O42" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="P42" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="Q42" t="n">
         <v>14.0</v>
@@ -9745,16 +9808,16 @@
         <v>27.0</v>
       </c>
       <c r="AF42" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="AG42" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AH42" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AI42" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AJ42" t="n">
         <v>4.0</v>
@@ -9763,10 +9826,10 @@
         <v>0.0</v>
       </c>
       <c r="AL42" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="AM42" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="AN42" t="n">
         <v>1.9</v>
@@ -9870,16 +9933,16 @@
         <v>111</v>
       </c>
       <c r="B43" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C43" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D43" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="E43" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F43" t="n">
         <v>1.0</v>
@@ -9888,7 +9951,7 @@
         <v>1.0</v>
       </c>
       <c r="H43" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="I43" t="n">
         <v>1.0</v>
@@ -9897,7 +9960,7 @@
         <v>1.0</v>
       </c>
       <c r="K43" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="L43" t="n">
         <v>3.32</v>
@@ -9909,10 +9972,10 @@
         <v>2.39</v>
       </c>
       <c r="O43" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="P43" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="Q43" t="n">
         <v>4.0</v>
@@ -9960,16 +10023,16 @@
         <v>29.0</v>
       </c>
       <c r="AF43" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="AG43" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AH43" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AI43" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AJ43" t="n">
         <v>5.0</v>
@@ -9978,10 +10041,10 @@
         <v>0.0</v>
       </c>
       <c r="AL43" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="AM43" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="AN43" t="n">
         <v>0.9</v>
@@ -10085,16 +10148,16 @@
         <v>112</v>
       </c>
       <c r="B44" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C44" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D44" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="E44" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="F44" t="n">
         <v>2.0</v>
@@ -10103,7 +10166,7 @@
         <v>0.0</v>
       </c>
       <c r="H44" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="I44" t="n">
         <v>1.0</v>
@@ -10112,7 +10175,7 @@
         <v>0.0</v>
       </c>
       <c r="K44" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="L44" t="n">
         <v>2.16</v>
@@ -10124,10 +10187,10 @@
         <v>3.44</v>
       </c>
       <c r="O44" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="P44" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="Q44" t="n">
         <v>9.0</v>
@@ -10175,16 +10238,16 @@
         <v>33.0</v>
       </c>
       <c r="AF44" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="AG44" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AH44" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AI44" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="AJ44" t="n">
         <v>2.0</v>
@@ -10193,10 +10256,10 @@
         <v>0.0</v>
       </c>
       <c r="AL44" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="AM44" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="AN44" t="n">
         <v>0.5</v>
@@ -10300,16 +10363,16 @@
         <v>113</v>
       </c>
       <c r="B45" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C45" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D45" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E45" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="F45" t="n">
         <v>3.0</v>
@@ -10318,7 +10381,7 @@
         <v>2.0</v>
       </c>
       <c r="H45" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="I45" t="n">
         <v>0.0</v>
@@ -10327,7 +10390,7 @@
         <v>1.0</v>
       </c>
       <c r="K45" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="L45" t="n">
         <v>2.39</v>
@@ -10339,10 +10402,10 @@
         <v>3.14</v>
       </c>
       <c r="O45" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="P45" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="Q45" t="n">
         <v>14.0</v>
@@ -10390,16 +10453,16 @@
         <v>33.0</v>
       </c>
       <c r="AF45" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AG45" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AH45" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AI45" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AJ45" t="n">
         <v>7.0</v>
@@ -10408,10 +10471,10 @@
         <v>0.0</v>
       </c>
       <c r="AL45" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="AM45" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="AN45" t="n">
         <v>2.0</v>
@@ -10515,16 +10578,16 @@
         <v>114</v>
       </c>
       <c r="B46" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C46" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D46" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="E46" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="F46" t="n">
         <v>2.0</v>
@@ -10533,7 +10596,7 @@
         <v>3.0</v>
       </c>
       <c r="H46" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="I46" t="n">
         <v>0.0</v>
@@ -10542,7 +10605,7 @@
         <v>0.0</v>
       </c>
       <c r="K46" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="L46" t="n">
         <v>3.06</v>
@@ -10554,10 +10617,10 @@
         <v>2.21</v>
       </c>
       <c r="O46" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="P46" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="Q46" t="n">
         <v>18.0</v>
@@ -10605,16 +10668,16 @@
         <v>20.0</v>
       </c>
       <c r="AF46" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="AG46" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AH46" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AI46" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AJ46" t="n">
         <v>7.0</v>
@@ -10623,10 +10686,10 @@
         <v>1.0</v>
       </c>
       <c r="AL46" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="AM46" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="AN46" t="n">
         <v>3.0</v>
@@ -10723,6 +10786,1941 @@
       </c>
       <c r="BS46" t="n">
         <v>174.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>115</v>
+      </c>
+      <c r="B47" t="s">
+        <v>124</v>
+      </c>
+      <c r="C47" t="n" s="2">
+        <v>45562.0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>129</v>
+      </c>
+      <c r="E47" t="s">
+        <v>126</v>
+      </c>
+      <c r="F47" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H47" t="s">
+        <v>144</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K47" t="s">
+        <v>144</v>
+      </c>
+      <c r="L47" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="N47" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="O47" t="s">
+        <v>151</v>
+      </c>
+      <c r="P47" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>203</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>203</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>204</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>250</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>260</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BG47" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="BH47" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL47" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="BM47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN47" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="BO47" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="BP47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ47" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="BR47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BS47" t="n">
+        <v>80.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>116</v>
+      </c>
+      <c r="B48" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" t="n" s="2">
+        <v>45562.0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>134</v>
+      </c>
+      <c r="E48" t="s">
+        <v>133</v>
+      </c>
+      <c r="F48" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H48" t="s">
+        <v>144</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K48" t="s">
+        <v>144</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="N48" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="O48" t="s">
+        <v>148</v>
+      </c>
+      <c r="P48" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>203</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>203</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>251</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>273</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BF48" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BG48" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="BH48" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ48" t="n">
+        <v>138.0</v>
+      </c>
+      <c r="BK48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL48" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="BM48" t="n">
+        <v>138.0</v>
+      </c>
+      <c r="BN48" t="n">
+        <v>190.0</v>
+      </c>
+      <c r="BO48" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="BP48" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="BQ48" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="BR48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BS48" t="n">
+        <v>120.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>117</v>
+      </c>
+      <c r="B49" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" t="n" s="2">
+        <v>45563.0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>138</v>
+      </c>
+      <c r="E49" t="s">
+        <v>140</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>145</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K49" t="s">
+        <v>145</v>
+      </c>
+      <c r="L49" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="N49" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="O49" t="s">
+        <v>150</v>
+      </c>
+      <c r="P49" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U49" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>200</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>204</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>204</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>252</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>269</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AX49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BF49" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BG49" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="BH49" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="BI49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ49" t="n">
+        <v>127.0</v>
+      </c>
+      <c r="BK49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL49" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="BM49" t="n">
+        <v>127.0</v>
+      </c>
+      <c r="BN49" t="n">
+        <v>247.0</v>
+      </c>
+      <c r="BO49" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="BP49" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="BQ49" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="BR49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS49" t="n">
+        <v>90.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>118</v>
+      </c>
+      <c r="B50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" t="n" s="2">
+        <v>45563.0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>125</v>
+      </c>
+      <c r="E50" t="s">
+        <v>136</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H50" t="s">
+        <v>143</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K50" t="s">
+        <v>143</v>
+      </c>
+      <c r="L50" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="O50" t="s">
+        <v>153</v>
+      </c>
+      <c r="P50" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="U50" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>203</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>203</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>204</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>253</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>275</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>139.0</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ50" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL50" t="n">
+        <v>139.0</v>
+      </c>
+      <c r="BM50" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="BN50" t="n">
+        <v>207.0</v>
+      </c>
+      <c r="BO50" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="BP50" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="BQ50" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="BR50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BS50" t="n">
+        <v>88.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>119</v>
+      </c>
+      <c r="B51" t="s">
+        <v>124</v>
+      </c>
+      <c r="C51" t="n" s="2">
+        <v>45563.0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>128</v>
+      </c>
+      <c r="E51" t="s">
+        <v>131</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H51" t="s">
+        <v>144</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K51" t="s">
+        <v>145</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="N51" t="n">
+        <v>8.48</v>
+      </c>
+      <c r="O51" t="s">
+        <v>149</v>
+      </c>
+      <c r="P51" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>201</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>203</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>203</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>204</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>254</v>
+      </c>
+      <c r="AM51" t="s">
+        <v>266</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF51" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BG51" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="BH51" t="n">
+        <v>270.0</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ51" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="BK51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL51" t="n">
+        <v>270.0</v>
+      </c>
+      <c r="BM51" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="BN51" t="n">
+        <v>286.0</v>
+      </c>
+      <c r="BO51" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BP51" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BQ51" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="BR51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS51" t="n">
+        <v>119.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>120</v>
+      </c>
+      <c r="B52" t="s">
+        <v>124</v>
+      </c>
+      <c r="C52" t="n" s="2">
+        <v>45564.0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>132</v>
+      </c>
+      <c r="E52" t="s">
+        <v>135</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H52" t="s">
+        <v>143</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K52" t="s">
+        <v>145</v>
+      </c>
+      <c r="L52" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="N52" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="O52" t="s">
+        <v>149</v>
+      </c>
+      <c r="P52" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>203</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>203</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>204</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>255</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>261</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BG52" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>145.0</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL52" t="n">
+        <v>145.0</v>
+      </c>
+      <c r="BM52" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="BN52" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="BO52" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="BP52" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BQ52" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BR52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS52" t="n">
+        <v>86.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>121</v>
+      </c>
+      <c r="B53" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" t="n" s="2">
+        <v>45564.0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>130</v>
+      </c>
+      <c r="E53" t="s">
+        <v>127</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H53" t="s">
+        <v>143</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K53" t="s">
+        <v>143</v>
+      </c>
+      <c r="L53" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="N53" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="O53" t="s">
+        <v>153</v>
+      </c>
+      <c r="P53" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>203</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>203</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>256</v>
+      </c>
+      <c r="AM53" t="s">
+        <v>274</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BG53" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ53" t="n">
+        <v>135.0</v>
+      </c>
+      <c r="BK53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM53" t="n">
+        <v>135.0</v>
+      </c>
+      <c r="BN53" t="n">
+        <v>135.0</v>
+      </c>
+      <c r="BO53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BP53" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="BQ53" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="BR53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS53" t="n">
+        <v>102.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>122</v>
+      </c>
+      <c r="B54" t="s">
+        <v>124</v>
+      </c>
+      <c r="C54" t="n" s="2">
+        <v>45564.0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>139</v>
+      </c>
+      <c r="E54" t="s">
+        <v>137</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H54" t="s">
+        <v>145</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K54" t="s">
+        <v>144</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="N54" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="O54" t="s">
+        <v>148</v>
+      </c>
+      <c r="P54" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U54" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V54" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>202</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>203</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>203</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>257</v>
+      </c>
+      <c r="AM54" t="s">
+        <v>270</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AZ54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>118.0</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>196.0</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL54" t="n">
+        <v>314.0</v>
+      </c>
+      <c r="BM54" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="BN54" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="BO54" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="BP54" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="BQ54" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="BR54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BS54" t="n">
+        <v>141.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>123</v>
+      </c>
+      <c r="B55" t="s">
+        <v>124</v>
+      </c>
+      <c r="C55" t="n" s="2">
+        <v>45564.0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>141</v>
+      </c>
+      <c r="E55" t="s">
+        <v>142</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="s">
+        <v>144</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K55" t="s">
+        <v>144</v>
+      </c>
+      <c r="L55" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="N55" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="O55" t="s">
+        <v>148</v>
+      </c>
+      <c r="P55" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S55" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="T55" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U55" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>204</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>204</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>258</v>
+      </c>
+      <c r="AM55" t="s">
+        <v>265</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL55" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="BM55" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="BN55" t="n">
+        <v>199.0</v>
+      </c>
+      <c r="BO55" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="BP55" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="BQ55" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="BR55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS55" t="n">
+        <v>63.0</v>
       </c>
     </row>
   </sheetData>

--- a/LIGUEONE_SPREAD.xlsx
+++ b/LIGUEONE_SPREAD.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="328">
   <si>
     <t>Div</t>
   </si>
@@ -386,6 +386,60 @@
     <t>54</t>
   </si>
   <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
     <t>F1</t>
   </si>
   <si>
@@ -482,15 +536,18 @@
     <t>2-2</t>
   </si>
   <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>0-3</t>
+  </si>
+  <si>
     <t>1-4</t>
   </si>
   <si>
     <t>1-5</t>
   </si>
   <si>
-    <t>2-1</t>
-  </si>
-  <si>
     <t>3-0</t>
   </si>
   <si>
@@ -503,9 +560,6 @@
     <t>4-0</t>
   </si>
   <si>
-    <t>0-3</t>
-  </si>
-  <si>
     <t>8-0</t>
   </si>
   <si>
@@ -518,6 +572,15 @@
     <t>2-3</t>
   </si>
   <si>
+    <t>4-2</t>
+  </si>
+  <si>
+    <t>0-4</t>
+  </si>
+  <si>
+    <t>0-5</t>
+  </si>
+  <si>
     <t>2-8</t>
   </si>
   <si>
@@ -623,6 +686,36 @@
     <t>8-4</t>
   </si>
   <si>
+    <t>9-3</t>
+  </si>
+  <si>
+    <t>4-6</t>
+  </si>
+  <si>
+    <t>10-4</t>
+  </si>
+  <si>
+    <t>1-9</t>
+  </si>
+  <si>
+    <t>5-15</t>
+  </si>
+  <si>
+    <t>6-1</t>
+  </si>
+  <si>
+    <t>5-5</t>
+  </si>
+  <si>
+    <t>5-9</t>
+  </si>
+  <si>
+    <t>4-8</t>
+  </si>
+  <si>
+    <t>8-2</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -791,6 +884,60 @@
     <t>Strasbourg-Marseille</t>
   </si>
   <si>
+    <t>Marseille-Angers</t>
+  </si>
+  <si>
+    <t>St Etienne-Auxerre</t>
+  </si>
+  <si>
+    <t>Lille-Toulouse</t>
+  </si>
+  <si>
+    <t>Rennes-Monaco</t>
+  </si>
+  <si>
+    <t>Lyon-Nantes</t>
+  </si>
+  <si>
+    <t>Brest-Le Havre</t>
+  </si>
+  <si>
+    <t>Reims-Montpellier</t>
+  </si>
+  <si>
+    <t>Strasbourg-Lens</t>
+  </si>
+  <si>
+    <t>Nice-Paris SG</t>
+  </si>
+  <si>
+    <t>Monaco-Lille</t>
+  </si>
+  <si>
+    <t>Brest-Rennes</t>
+  </si>
+  <si>
+    <t>St Etienne-Lens</t>
+  </si>
+  <si>
+    <t>Paris SG-Strasbourg</t>
+  </si>
+  <si>
+    <t>Le Havre-Lyon</t>
+  </si>
+  <si>
+    <t>Auxerre-Reims</t>
+  </si>
+  <si>
+    <t>Nantes-Nice</t>
+  </si>
+  <si>
+    <t>Toulouse-Angers</t>
+  </si>
+  <si>
+    <t>Montpellier-Marseille</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -846,6 +993,9 @@
   </si>
   <si>
     <t>Florent Batta</t>
+  </si>
+  <si>
+    <t>Romain Lissorgue</t>
   </si>
 </sst>
 </file>
@@ -1118,16 +1268,16 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C2" t="n" s="2">
         <v>45520.0</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="E2" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="F2" t="n">
         <v>1.0</v>
@@ -1136,7 +1286,7 @@
         <v>4.0</v>
       </c>
       <c r="H2" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="I2" t="n">
         <v>0.0</v>
@@ -1145,7 +1295,7 @@
         <v>1.0</v>
       </c>
       <c r="K2" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="L2" t="n">
         <v>7.84</v>
@@ -1157,10 +1307,10 @@
         <v>1.42</v>
       </c>
       <c r="O2" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="P2" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="Q2" t="n">
         <v>5.0</v>
@@ -1208,16 +1358,16 @@
         <v>18.0</v>
       </c>
       <c r="AF2" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="AG2" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AH2" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AI2" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AJ2" t="n">
         <v>3.0</v>
@@ -1226,10 +1376,10 @@
         <v>0.0</v>
       </c>
       <c r="AL2" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="AM2" t="s">
-        <v>259</v>
+        <v>308</v>
       </c>
       <c r="AN2" t="n">
         <v>0.2</v>
@@ -1333,16 +1483,16 @@
         <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C3" t="n" s="2">
         <v>45521.0</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="F3" t="n">
         <v>1.0</v>
@@ -1351,7 +1501,7 @@
         <v>5.0</v>
       </c>
       <c r="H3" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="I3" t="n">
         <v>1.0</v>
@@ -1360,7 +1510,7 @@
         <v>3.0</v>
       </c>
       <c r="K3" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="L3" t="n">
         <v>2.96</v>
@@ -1372,10 +1522,10 @@
         <v>2.51</v>
       </c>
       <c r="O3" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="P3" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="Q3" t="n">
         <v>7.0</v>
@@ -1423,16 +1573,16 @@
         <v>18.0</v>
       </c>
       <c r="AF3" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="AG3" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AH3" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AI3" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AJ3" t="n">
         <v>5.0</v>
@@ -1441,10 +1591,10 @@
         <v>0.0</v>
       </c>
       <c r="AL3" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AM3" t="s">
-        <v>259</v>
+        <v>308</v>
       </c>
       <c r="AN3" t="n">
         <v>1.3</v>
@@ -1548,16 +1698,16 @@
         <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C4" t="n" s="2">
         <v>45521.0</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="E4" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="F4" t="n">
         <v>0.0</v>
@@ -1566,7 +1716,7 @@
         <v>2.0</v>
       </c>
       <c r="H4" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="I4" t="n">
         <v>0.0</v>
@@ -1575,7 +1725,7 @@
         <v>1.0</v>
       </c>
       <c r="K4" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="L4" t="n">
         <v>3.36</v>
@@ -1587,10 +1737,10 @@
         <v>2.27</v>
       </c>
       <c r="O4" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="P4" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="Q4" t="n">
         <v>2.0</v>
@@ -1638,16 +1788,16 @@
         <v>19.0</v>
       </c>
       <c r="AF4" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="AG4" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AH4" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AI4" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AJ4" t="n">
         <v>4.0</v>
@@ -1656,10 +1806,10 @@
         <v>1.0</v>
       </c>
       <c r="AL4" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="AM4" t="s">
-        <v>259</v>
+        <v>308</v>
       </c>
       <c r="AN4" t="n">
         <v>0.1</v>
@@ -1763,16 +1913,16 @@
         <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C5" t="n" s="2">
         <v>45521.0</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="E5" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="F5" t="n">
         <v>1.0</v>
@@ -1781,7 +1931,7 @@
         <v>0.0</v>
       </c>
       <c r="H5" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="I5" t="n">
         <v>1.0</v>
@@ -1790,7 +1940,7 @@
         <v>0.0</v>
       </c>
       <c r="K5" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="L5" t="n">
         <v>1.51</v>
@@ -1802,10 +1952,10 @@
         <v>6.26</v>
       </c>
       <c r="O5" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="P5" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="Q5" t="n">
         <v>13.0</v>
@@ -1853,16 +2003,16 @@
         <v>27.0</v>
       </c>
       <c r="AF5" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="AG5" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AH5" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AI5" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AJ5" t="n">
         <v>2.0</v>
@@ -1871,10 +2021,10 @@
         <v>0.0</v>
       </c>
       <c r="AL5" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="AM5" t="s">
-        <v>259</v>
+        <v>308</v>
       </c>
       <c r="AN5" t="n">
         <v>2.0</v>
@@ -1978,16 +2128,16 @@
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C6" t="n" s="2">
         <v>45522.0</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="E6" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F6" t="n">
         <v>2.0</v>
@@ -1996,7 +2146,7 @@
         <v>1.0</v>
       </c>
       <c r="H6" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="I6" t="n">
         <v>1.0</v>
@@ -2005,7 +2155,7 @@
         <v>1.0</v>
       </c>
       <c r="K6" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="L6" t="n">
         <v>3.22</v>
@@ -2017,10 +2167,10 @@
         <v>2.45</v>
       </c>
       <c r="O6" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="P6" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="Q6" t="n">
         <v>16.0</v>
@@ -2068,16 +2218,16 @@
         <v>28.0</v>
       </c>
       <c r="AF6" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="AG6" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AH6" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AI6" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AJ6" t="n">
         <v>0.0</v>
@@ -2086,10 +2236,10 @@
         <v>0.0</v>
       </c>
       <c r="AL6" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="AM6" t="s">
-        <v>259</v>
+        <v>308</v>
       </c>
       <c r="AN6" t="n">
         <v>1.8</v>
@@ -2193,16 +2343,16 @@
         <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C7" t="n" s="2">
         <v>45522.0</v>
       </c>
       <c r="D7" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="E7" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="F7" t="n">
         <v>0.0</v>
@@ -2211,7 +2361,7 @@
         <v>1.0</v>
       </c>
       <c r="H7" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="I7" t="n">
         <v>0.0</v>
@@ -2220,7 +2370,7 @@
         <v>1.0</v>
       </c>
       <c r="K7" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="L7" t="n">
         <v>5.66</v>
@@ -2232,10 +2382,10 @@
         <v>1.65</v>
       </c>
       <c r="O7" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="P7" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="Q7" t="n">
         <v>4.0</v>
@@ -2283,16 +2433,16 @@
         <v>16.0</v>
       </c>
       <c r="AF7" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="AG7" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AH7" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AI7" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AJ7" t="n">
         <v>1.0</v>
@@ -2301,10 +2451,10 @@
         <v>0.0</v>
       </c>
       <c r="AL7" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="AM7" t="s">
-        <v>259</v>
+        <v>308</v>
       </c>
       <c r="AN7" t="n">
         <v>0.4</v>
@@ -2408,16 +2558,16 @@
         <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C8" t="n" s="2">
         <v>45522.0</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="E8" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="F8" t="n">
         <v>1.0</v>
@@ -2426,7 +2576,7 @@
         <v>1.0</v>
       </c>
       <c r="H8" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="I8" t="n">
         <v>0.0</v>
@@ -2435,7 +2585,7 @@
         <v>0.0</v>
       </c>
       <c r="K8" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="L8" t="n">
         <v>2.12</v>
@@ -2447,10 +2597,10 @@
         <v>3.8</v>
       </c>
       <c r="O8" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="P8" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="Q8" t="n">
         <v>7.0</v>
@@ -2498,16 +2648,16 @@
         <v>38.0</v>
       </c>
       <c r="AF8" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="AG8" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AH8" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AI8" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AJ8" t="n">
         <v>7.0</v>
@@ -2516,10 +2666,10 @@
         <v>0.0</v>
       </c>
       <c r="AL8" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="AM8" t="s">
-        <v>259</v>
+        <v>308</v>
       </c>
       <c r="AN8" t="n">
         <v>1.3</v>
@@ -2623,16 +2773,16 @@
         <v>77</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C9" t="n" s="2">
         <v>45522.0</v>
       </c>
       <c r="D9" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="E9" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="F9" t="n">
         <v>0.0</v>
@@ -2641,7 +2791,7 @@
         <v>0.0</v>
       </c>
       <c r="H9" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="I9" t="n">
         <v>0.0</v>
@@ -2650,7 +2800,7 @@
         <v>0.0</v>
       </c>
       <c r="K9" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="L9" t="n">
         <v>2.11</v>
@@ -2662,10 +2812,10 @@
         <v>3.92</v>
       </c>
       <c r="O9" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="P9" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="Q9" t="n">
         <v>7.0</v>
@@ -2713,16 +2863,16 @@
         <v>18.0</v>
       </c>
       <c r="AF9" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="AG9" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AH9" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AI9" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AJ9" t="n">
         <v>4.0</v>
@@ -2731,10 +2881,10 @@
         <v>0.0</v>
       </c>
       <c r="AL9" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="AM9" t="s">
-        <v>260</v>
+        <v>309</v>
       </c>
       <c r="AN9" t="n">
         <v>1.7</v>
@@ -2838,16 +2988,16 @@
         <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C10" t="n" s="2">
         <v>45522.0</v>
       </c>
       <c r="D10" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="E10" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="F10" t="n">
         <v>3.0</v>
@@ -2856,7 +3006,7 @@
         <v>0.0</v>
       </c>
       <c r="H10" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="I10" t="n">
         <v>2.0</v>
@@ -2865,7 +3015,7 @@
         <v>0.0</v>
       </c>
       <c r="K10" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="L10" t="n">
         <v>2.47</v>
@@ -2877,10 +3027,10 @@
         <v>3.01</v>
       </c>
       <c r="O10" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="P10" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="Q10" t="n">
         <v>22.0</v>
@@ -2928,16 +3078,16 @@
         <v>25.0</v>
       </c>
       <c r="AF10" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="AG10" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AH10" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AI10" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AJ10" t="n">
         <v>3.0</v>
@@ -2946,10 +3096,10 @@
         <v>0.0</v>
       </c>
       <c r="AL10" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="AM10" t="s">
-        <v>259</v>
+        <v>308</v>
       </c>
       <c r="AN10" t="n">
         <v>2.0</v>
@@ -3053,16 +3203,16 @@
         <v>79</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C11" t="n" s="2">
         <v>45527.0</v>
       </c>
       <c r="D11" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="E11" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="F11" t="n">
         <v>6.0</v>
@@ -3071,7 +3221,7 @@
         <v>0.0</v>
       </c>
       <c r="H11" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="I11" t="n">
         <v>2.0</v>
@@ -3080,7 +3230,7 @@
         <v>0.0</v>
       </c>
       <c r="K11" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="L11" t="n">
         <v>1.25</v>
@@ -3092,10 +3242,10 @@
         <v>10.85</v>
       </c>
       <c r="O11" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="P11" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="Q11" t="n">
         <v>21.0</v>
@@ -3143,16 +3293,16 @@
         <v>25.0</v>
       </c>
       <c r="AF11" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="AG11" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AH11" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AI11" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AJ11" t="n">
         <v>5.0</v>
@@ -3161,10 +3311,10 @@
         <v>0.0</v>
       </c>
       <c r="AL11" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="AM11" t="s">
-        <v>259</v>
+        <v>308</v>
       </c>
       <c r="AN11" t="n">
         <v>3.8</v>
@@ -3268,16 +3418,16 @@
         <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C12" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D12" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="E12" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="F12" t="n">
         <v>0.0</v>
@@ -3286,7 +3436,7 @@
         <v>2.0</v>
       </c>
       <c r="H12" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="I12" t="n">
         <v>0.0</v>
@@ -3295,7 +3445,7 @@
         <v>0.0</v>
       </c>
       <c r="K12" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="L12" t="n">
         <v>2.62</v>
@@ -3307,10 +3457,10 @@
         <v>2.61</v>
       </c>
       <c r="O12" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="P12" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="Q12" t="n">
         <v>2.0</v>
@@ -3358,16 +3508,16 @@
         <v>17.0</v>
       </c>
       <c r="AF12" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="AG12" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AH12" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AI12" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AJ12" t="n">
         <v>0.0</v>
@@ -3376,10 +3526,10 @@
         <v>1.0</v>
       </c>
       <c r="AL12" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="AM12" t="s">
-        <v>259</v>
+        <v>308</v>
       </c>
       <c r="AN12" t="n">
         <v>0.0</v>
@@ -3483,16 +3633,16 @@
         <v>81</v>
       </c>
       <c r="B13" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C13" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D13" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="E13" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="F13" t="n">
         <v>2.0</v>
@@ -3501,7 +3651,7 @@
         <v>0.0</v>
       </c>
       <c r="H13" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="I13" t="n">
         <v>1.0</v>
@@ -3510,7 +3660,7 @@
         <v>0.0</v>
       </c>
       <c r="K13" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="L13" t="n">
         <v>1.33</v>
@@ -3522,10 +3672,10 @@
         <v>8.77</v>
       </c>
       <c r="O13" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="P13" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="Q13" t="n">
         <v>11.0</v>
@@ -3573,16 +3723,16 @@
         <v>26.0</v>
       </c>
       <c r="AF13" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="AG13" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AH13" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AI13" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AJ13" t="n">
         <v>3.0</v>
@@ -3591,10 +3741,10 @@
         <v>0.0</v>
       </c>
       <c r="AL13" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="AM13" t="s">
-        <v>259</v>
+        <v>308</v>
       </c>
       <c r="AN13" t="n">
         <v>0.9</v>
@@ -3698,16 +3848,16 @@
         <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C14" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D14" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="E14" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="F14" t="n">
         <v>0.0</v>
@@ -3716,7 +3866,7 @@
         <v>2.0</v>
       </c>
       <c r="H14" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="I14" t="n">
         <v>0.0</v>
@@ -3725,7 +3875,7 @@
         <v>0.0</v>
       </c>
       <c r="K14" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="L14" t="n">
         <v>2.11</v>
@@ -3737,10 +3887,10 @@
         <v>3.71</v>
       </c>
       <c r="O14" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="P14" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="Q14" t="n">
         <v>18.0</v>
@@ -3788,16 +3938,16 @@
         <v>20.0</v>
       </c>
       <c r="AF14" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="AG14" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AH14" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AI14" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AJ14" t="n">
         <v>6.0</v>
@@ -3806,10 +3956,10 @@
         <v>0.0</v>
       </c>
       <c r="AL14" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="AM14" t="s">
-        <v>259</v>
+        <v>308</v>
       </c>
       <c r="AN14" t="n">
         <v>1.1</v>
@@ -3913,16 +4063,16 @@
         <v>83</v>
       </c>
       <c r="B15" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C15" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D15" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="E15" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="F15" t="n">
         <v>2.0</v>
@@ -3931,7 +4081,7 @@
         <v>0.0</v>
       </c>
       <c r="H15" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="I15" t="n">
         <v>2.0</v>
@@ -3940,7 +4090,7 @@
         <v>0.0</v>
       </c>
       <c r="K15" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="L15" t="n">
         <v>1.81</v>
@@ -3952,10 +4102,10 @@
         <v>4.69</v>
       </c>
       <c r="O15" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="P15" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="Q15" t="n">
         <v>22.0</v>
@@ -4003,16 +4153,16 @@
         <v>14.0</v>
       </c>
       <c r="AF15" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="AG15" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AH15" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AI15" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AJ15" t="n">
         <v>0.0</v>
@@ -4021,10 +4171,10 @@
         <v>1.0</v>
       </c>
       <c r="AL15" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="AM15" t="s">
-        <v>259</v>
+        <v>308</v>
       </c>
       <c r="AN15" t="n">
         <v>2.9</v>
@@ -4128,16 +4278,16 @@
         <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C16" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D16" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="E16" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="F16" t="n">
         <v>2.0</v>
@@ -4146,7 +4296,7 @@
         <v>0.0</v>
       </c>
       <c r="H16" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="I16" t="n">
         <v>1.0</v>
@@ -4155,7 +4305,7 @@
         <v>0.0</v>
       </c>
       <c r="K16" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="L16" t="n">
         <v>2.25</v>
@@ -4167,10 +4317,10 @@
         <v>3.22</v>
       </c>
       <c r="O16" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="P16" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="Q16" t="n">
         <v>8.0</v>
@@ -4218,16 +4368,16 @@
         <v>15.0</v>
       </c>
       <c r="AF16" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="AG16" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AH16" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AI16" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AJ16" t="n">
         <v>0.0</v>
@@ -4236,10 +4386,10 @@
         <v>1.0</v>
       </c>
       <c r="AL16" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="AM16" t="s">
-        <v>261</v>
+        <v>310</v>
       </c>
       <c r="AN16" t="n">
         <v>1.4</v>
@@ -4343,16 +4493,16 @@
         <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C17" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D17" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="E17" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="F17" t="n">
         <v>1.0</v>
@@ -4361,7 +4511,7 @@
         <v>1.0</v>
       </c>
       <c r="H17" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="I17" t="n">
         <v>0.0</v>
@@ -4370,7 +4520,7 @@
         <v>0.0</v>
       </c>
       <c r="K17" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="L17" t="n">
         <v>1.88</v>
@@ -4382,10 +4532,10 @@
         <v>4.57</v>
       </c>
       <c r="O17" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="P17" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="Q17" t="n">
         <v>10.0</v>
@@ -4433,16 +4583,16 @@
         <v>32.0</v>
       </c>
       <c r="AF17" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="AG17" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AH17" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AI17" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AJ17" t="n">
         <v>5.0</v>
@@ -4451,10 +4601,10 @@
         <v>0.0</v>
       </c>
       <c r="AL17" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="AM17" t="s">
-        <v>259</v>
+        <v>308</v>
       </c>
       <c r="AN17" t="n">
         <v>1.3</v>
@@ -4558,16 +4708,16 @@
         <v>86</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C18" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D18" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="E18" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="F18" t="n">
         <v>3.0</v>
@@ -4576,7 +4726,7 @@
         <v>1.0</v>
       </c>
       <c r="H18" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="I18" t="n">
         <v>1.0</v>
@@ -4585,7 +4735,7 @@
         <v>0.0</v>
       </c>
       <c r="K18" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="L18" t="n">
         <v>3.19</v>
@@ -4597,10 +4747,10 @@
         <v>2.3</v>
       </c>
       <c r="O18" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="P18" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="Q18" t="n">
         <v>9.0</v>
@@ -4648,16 +4798,16 @@
         <v>26.0</v>
       </c>
       <c r="AF18" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="AG18" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AH18" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AI18" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AJ18" t="n">
         <v>6.0</v>
@@ -4666,10 +4816,10 @@
         <v>0.0</v>
       </c>
       <c r="AL18" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="AM18" t="s">
-        <v>259</v>
+        <v>308</v>
       </c>
       <c r="AN18" t="n">
         <v>0.7</v>
@@ -4773,16 +4923,16 @@
         <v>87</v>
       </c>
       <c r="B19" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C19" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D19" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="E19" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="F19" t="n">
         <v>2.0</v>
@@ -4791,7 +4941,7 @@
         <v>2.0</v>
       </c>
       <c r="H19" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="I19" t="n">
         <v>1.0</v>
@@ -4800,7 +4950,7 @@
         <v>0.0</v>
       </c>
       <c r="K19" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="L19" t="n">
         <v>1.56</v>
@@ -4812,10 +4962,10 @@
         <v>5.84</v>
       </c>
       <c r="O19" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="P19" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="Q19" t="n">
         <v>16.0</v>
@@ -4863,16 +5013,16 @@
         <v>23.0</v>
       </c>
       <c r="AF19" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="AG19" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AH19" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AI19" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AJ19" t="n">
         <v>2.0</v>
@@ -4881,10 +5031,10 @@
         <v>0.0</v>
       </c>
       <c r="AL19" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="AM19" t="s">
-        <v>259</v>
+        <v>308</v>
       </c>
       <c r="AN19" t="n">
         <v>3.0</v>
@@ -4988,16 +5138,16 @@
         <v>88</v>
       </c>
       <c r="B20" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C20" t="n" s="2">
         <v>45534.0</v>
       </c>
       <c r="D20" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="E20" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="F20" t="n">
         <v>4.0</v>
@@ -5006,7 +5156,7 @@
         <v>3.0</v>
       </c>
       <c r="H20" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="I20" t="n">
         <v>1.0</v>
@@ -5015,7 +5165,7 @@
         <v>1.0</v>
       </c>
       <c r="K20" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="L20" t="n">
         <v>1.89</v>
@@ -5027,10 +5177,10 @@
         <v>4.18</v>
       </c>
       <c r="O20" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="P20" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="Q20" t="n">
         <v>22.0</v>
@@ -5078,16 +5228,16 @@
         <v>16.0</v>
       </c>
       <c r="AF20" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="AG20" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AH20" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AI20" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AJ20" t="n">
         <v>5.0</v>
@@ -5096,10 +5246,10 @@
         <v>0.0</v>
       </c>
       <c r="AL20" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
       <c r="AM20" t="s">
-        <v>262</v>
+        <v>311</v>
       </c>
       <c r="AN20" t="n">
         <v>2.9</v>
@@ -5203,16 +5353,16 @@
         <v>89</v>
       </c>
       <c r="B21" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C21" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D21" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="E21" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="F21" t="n">
         <v>4.0</v>
@@ -5221,7 +5371,7 @@
         <v>0.0</v>
       </c>
       <c r="H21" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="I21" t="n">
         <v>2.0</v>
@@ -5230,7 +5380,7 @@
         <v>0.0</v>
       </c>
       <c r="K21" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="L21" t="n">
         <v>1.85</v>
@@ -5242,10 +5392,10 @@
         <v>4.28</v>
       </c>
       <c r="O21" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="P21" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="Q21" t="n">
         <v>17.0</v>
@@ -5293,16 +5443,16 @@
         <v>40.0</v>
       </c>
       <c r="AF21" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="AG21" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AH21" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AI21" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AJ21" t="n">
         <v>5.0</v>
@@ -5311,10 +5461,10 @@
         <v>0.0</v>
       </c>
       <c r="AL21" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="AM21" t="s">
-        <v>261</v>
+        <v>310</v>
       </c>
       <c r="AN21" t="n">
         <v>3.1</v>
@@ -5418,16 +5568,16 @@
         <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C22" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D22" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="E22" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="F22" t="n">
         <v>1.0</v>
@@ -5436,7 +5586,7 @@
         <v>3.0</v>
       </c>
       <c r="H22" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="I22" t="n">
         <v>1.0</v>
@@ -5445,7 +5595,7 @@
         <v>2.0</v>
       </c>
       <c r="K22" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="L22" t="n">
         <v>2.35</v>
@@ -5457,10 +5607,10 @@
         <v>3.22</v>
       </c>
       <c r="O22" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="P22" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="Q22" t="n">
         <v>11.0</v>
@@ -5508,16 +5658,16 @@
         <v>24.0</v>
       </c>
       <c r="AF22" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="AG22" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AH22" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AI22" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AJ22" t="n">
         <v>4.0</v>
@@ -5526,10 +5676,10 @@
         <v>0.0</v>
       </c>
       <c r="AL22" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="AM22" t="s">
-        <v>263</v>
+        <v>312</v>
       </c>
       <c r="AN22" t="n">
         <v>0.9</v>
@@ -5633,16 +5783,16 @@
         <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C23" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D23" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="E23" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="F23" t="n">
         <v>1.0</v>
@@ -5651,7 +5801,7 @@
         <v>3.0</v>
       </c>
       <c r="H23" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="I23" t="n">
         <v>0.0</v>
@@ -5660,7 +5810,7 @@
         <v>2.0</v>
       </c>
       <c r="K23" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="L23" t="n">
         <v>4.09</v>
@@ -5672,10 +5822,10 @@
         <v>1.91</v>
       </c>
       <c r="O23" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="P23" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="Q23" t="n">
         <v>4.0</v>
@@ -5723,16 +5873,16 @@
         <v>22.0</v>
       </c>
       <c r="AF23" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="AG23" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AH23" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AI23" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AJ23" t="n">
         <v>6.0</v>
@@ -5741,10 +5891,10 @@
         <v>1.0</v>
       </c>
       <c r="AL23" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="AM23" t="s">
-        <v>264</v>
+        <v>313</v>
       </c>
       <c r="AN23" t="n">
         <v>1.0</v>
@@ -5848,16 +5998,16 @@
         <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C24" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D24" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="E24" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="F24" t="n">
         <v>1.0</v>
@@ -5866,7 +6016,7 @@
         <v>1.0</v>
       </c>
       <c r="H24" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="I24" t="n">
         <v>0.0</v>
@@ -5875,7 +6025,7 @@
         <v>0.0</v>
       </c>
       <c r="K24" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="L24" t="n">
         <v>1.83</v>
@@ -5887,10 +6037,10 @@
         <v>3.9</v>
       </c>
       <c r="O24" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="P24" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="Q24" t="n">
         <v>14.0</v>
@@ -5938,16 +6088,16 @@
         <v>32.0</v>
       </c>
       <c r="AF24" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="AG24" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AH24" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AI24" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AJ24" t="n">
         <v>5.0</v>
@@ -5956,10 +6106,10 @@
         <v>0.0</v>
       </c>
       <c r="AL24" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="AM24" t="s">
-        <v>265</v>
+        <v>314</v>
       </c>
       <c r="AN24" t="n">
         <v>1.0</v>
@@ -6063,16 +6213,16 @@
         <v>93</v>
       </c>
       <c r="B25" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C25" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D25" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="E25" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F25" t="n">
         <v>1.0</v>
@@ -6081,7 +6231,7 @@
         <v>4.0</v>
       </c>
       <c r="H25" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="I25" t="n">
         <v>0.0</v>
@@ -6090,7 +6240,7 @@
         <v>2.0</v>
       </c>
       <c r="K25" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="L25" t="n">
         <v>4.2</v>
@@ -6102,10 +6252,10 @@
         <v>2.01</v>
       </c>
       <c r="O25" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="P25" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="Q25" t="n">
         <v>12.0</v>
@@ -6153,16 +6303,16 @@
         <v>27.0</v>
       </c>
       <c r="AF25" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="AG25" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AH25" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AI25" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AJ25" t="n">
         <v>10.0</v>
@@ -6171,10 +6321,10 @@
         <v>1.0</v>
       </c>
       <c r="AL25" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="AM25" t="s">
-        <v>260</v>
+        <v>309</v>
       </c>
       <c r="AN25" t="n">
         <v>1.4</v>
@@ -6278,16 +6428,16 @@
         <v>94</v>
       </c>
       <c r="B26" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C26" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D26" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="E26" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="F26" t="n">
         <v>3.0</v>
@@ -6296,7 +6446,7 @@
         <v>1.0</v>
       </c>
       <c r="H26" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="I26" t="n">
         <v>1.0</v>
@@ -6305,7 +6455,7 @@
         <v>1.0</v>
       </c>
       <c r="K26" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="L26" t="n">
         <v>2.81</v>
@@ -6317,10 +6467,10 @@
         <v>2.69</v>
       </c>
       <c r="O26" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="P26" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="Q26" t="n">
         <v>21.0</v>
@@ -6368,16 +6518,16 @@
         <v>25.0</v>
       </c>
       <c r="AF26" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="AG26" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AH26" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AI26" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AJ26" t="n">
         <v>6.0</v>
@@ -6386,10 +6536,10 @@
         <v>1.0</v>
       </c>
       <c r="AL26" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="AM26" t="s">
-        <v>266</v>
+        <v>315</v>
       </c>
       <c r="AN26" t="n">
         <v>2.8</v>
@@ -6493,16 +6643,16 @@
         <v>95</v>
       </c>
       <c r="B27" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C27" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D27" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="E27" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="F27" t="n">
         <v>2.0</v>
@@ -6511,7 +6661,7 @@
         <v>1.0</v>
       </c>
       <c r="H27" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="I27" t="n">
         <v>1.0</v>
@@ -6520,7 +6670,7 @@
         <v>1.0</v>
       </c>
       <c r="K27" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="L27" t="n">
         <v>2.94</v>
@@ -6532,10 +6682,10 @@
         <v>2.37</v>
       </c>
       <c r="O27" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="P27" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="Q27" t="n">
         <v>11.0</v>
@@ -6583,16 +6733,16 @@
         <v>21.0</v>
       </c>
       <c r="AF27" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="AG27" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AH27" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AI27" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AJ27" t="n">
         <v>3.0</v>
@@ -6601,10 +6751,10 @@
         <v>0.0</v>
       </c>
       <c r="AL27" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="AM27" t="s">
-        <v>267</v>
+        <v>316</v>
       </c>
       <c r="AN27" t="n">
         <v>1.4</v>
@@ -6708,16 +6858,16 @@
         <v>96</v>
       </c>
       <c r="B28" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C28" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D28" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="E28" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="F28" t="n">
         <v>1.0</v>
@@ -6726,7 +6876,7 @@
         <v>3.0</v>
       </c>
       <c r="H28" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="I28" t="n">
         <v>0.0</v>
@@ -6735,7 +6885,7 @@
         <v>2.0</v>
       </c>
       <c r="K28" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="L28" t="n">
         <v>4.31</v>
@@ -6747,10 +6897,10 @@
         <v>1.86</v>
       </c>
       <c r="O28" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="P28" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="Q28" t="n">
         <v>10.0</v>
@@ -6798,16 +6948,16 @@
         <v>12.0</v>
       </c>
       <c r="AF28" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="AG28" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AH28" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AI28" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AJ28" t="n">
         <v>5.0</v>
@@ -6816,10 +6966,10 @@
         <v>0.0</v>
       </c>
       <c r="AL28" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="AM28" t="s">
-        <v>268</v>
+        <v>317</v>
       </c>
       <c r="AN28" t="n">
         <v>1.4</v>
@@ -6923,16 +7073,16 @@
         <v>97</v>
       </c>
       <c r="B29" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C29" t="n" s="2">
         <v>45548.0</v>
       </c>
       <c r="D29" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="E29" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="F29" t="n">
         <v>1.0</v>
@@ -6941,7 +7091,7 @@
         <v>0.0</v>
       </c>
       <c r="H29" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="I29" t="n">
         <v>1.0</v>
@@ -6950,7 +7100,7 @@
         <v>0.0</v>
       </c>
       <c r="K29" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="L29" t="n">
         <v>5.22</v>
@@ -6962,10 +7112,10 @@
         <v>1.72</v>
       </c>
       <c r="O29" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="P29" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="Q29" t="n">
         <v>10.0</v>
@@ -7013,16 +7163,16 @@
         <v>22.0</v>
       </c>
       <c r="AF29" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="AG29" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AH29" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AI29" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AJ29" t="n">
         <v>2.0</v>
@@ -7031,10 +7181,10 @@
         <v>0.0</v>
       </c>
       <c r="AL29" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="AM29" t="s">
-        <v>269</v>
+        <v>318</v>
       </c>
       <c r="AN29" t="n">
         <v>1.2</v>
@@ -7138,16 +7288,16 @@
         <v>98</v>
       </c>
       <c r="B30" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C30" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D30" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="E30" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F30" t="n">
         <v>2.0</v>
@@ -7156,7 +7306,7 @@
         <v>0.0</v>
       </c>
       <c r="H30" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="I30" t="n">
         <v>1.0</v>
@@ -7165,7 +7315,7 @@
         <v>0.0</v>
       </c>
       <c r="K30" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="L30" t="n">
         <v>1.75</v>
@@ -7177,10 +7327,10 @@
         <v>4.6</v>
       </c>
       <c r="O30" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="P30" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="Q30" t="n">
         <v>10.0</v>
@@ -7228,16 +7378,16 @@
         <v>22.0</v>
       </c>
       <c r="AF30" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="AG30" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AH30" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AI30" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AJ30" t="n">
         <v>7.0</v>
@@ -7246,10 +7396,10 @@
         <v>1.0</v>
       </c>
       <c r="AL30" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="AM30" t="s">
-        <v>263</v>
+        <v>312</v>
       </c>
       <c r="AN30" t="n">
         <v>0.7</v>
@@ -7353,16 +7503,16 @@
         <v>99</v>
       </c>
       <c r="B31" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C31" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D31" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="E31" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="F31" t="n">
         <v>0.0</v>
@@ -7371,7 +7521,7 @@
         <v>3.0</v>
       </c>
       <c r="H31" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="I31" t="n">
         <v>0.0</v>
@@ -7380,7 +7530,7 @@
         <v>2.0</v>
       </c>
       <c r="K31" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="L31" t="n">
         <v>4.02</v>
@@ -7392,10 +7542,10 @@
         <v>1.89</v>
       </c>
       <c r="O31" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="P31" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="Q31" t="n">
         <v>13.0</v>
@@ -7443,16 +7593,16 @@
         <v>29.0</v>
       </c>
       <c r="AF31" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="AG31" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AH31" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AI31" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AJ31" t="n">
         <v>3.0</v>
@@ -7461,10 +7611,10 @@
         <v>0.0</v>
       </c>
       <c r="AL31" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="AM31" t="s">
-        <v>270</v>
+        <v>319</v>
       </c>
       <c r="AN31" t="n">
         <v>0.6</v>
@@ -7568,16 +7718,16 @@
         <v>100</v>
       </c>
       <c r="B32" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C32" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D32" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="E32" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="F32" t="n">
         <v>3.0</v>
@@ -7586,7 +7736,7 @@
         <v>1.0</v>
       </c>
       <c r="H32" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="I32" t="n">
         <v>1.0</v>
@@ -7595,7 +7745,7 @@
         <v>1.0</v>
       </c>
       <c r="K32" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="L32" t="n">
         <v>1.28</v>
@@ -7607,10 +7757,10 @@
         <v>9.59</v>
       </c>
       <c r="O32" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="P32" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="Q32" t="n">
         <v>22.0</v>
@@ -7658,16 +7808,16 @@
         <v>20.0</v>
       </c>
       <c r="AF32" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="AG32" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AH32" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AI32" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AJ32" t="n">
         <v>5.0</v>
@@ -7676,10 +7826,10 @@
         <v>0.0</v>
       </c>
       <c r="AL32" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="AM32" t="s">
-        <v>271</v>
+        <v>320</v>
       </c>
       <c r="AN32" t="n">
         <v>2.8</v>
@@ -7783,16 +7933,16 @@
         <v>101</v>
       </c>
       <c r="B33" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C33" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D33" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="E33" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="F33" t="n">
         <v>3.0</v>
@@ -7801,7 +7951,7 @@
         <v>0.0</v>
       </c>
       <c r="H33" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="I33" t="n">
         <v>2.0</v>
@@ -7810,7 +7960,7 @@
         <v>0.0</v>
       </c>
       <c r="K33" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="L33" t="n">
         <v>1.63</v>
@@ -7822,10 +7972,10 @@
         <v>5.16</v>
       </c>
       <c r="O33" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="P33" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="Q33" t="n">
         <v>11.0</v>
@@ -7873,16 +8023,16 @@
         <v>17.0</v>
       </c>
       <c r="AF33" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="AG33" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AH33" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AI33" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AJ33" t="n">
         <v>4.0</v>
@@ -7891,10 +8041,10 @@
         <v>0.0</v>
       </c>
       <c r="AL33" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="AM33" t="s">
-        <v>272</v>
+        <v>321</v>
       </c>
       <c r="AN33" t="n">
         <v>1.3</v>
@@ -7998,16 +8148,16 @@
         <v>102</v>
       </c>
       <c r="B34" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C34" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D34" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="E34" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="F34" t="n">
         <v>1.0</v>
@@ -8016,7 +8166,7 @@
         <v>2.0</v>
       </c>
       <c r="H34" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="I34" t="n">
         <v>1.0</v>
@@ -8025,7 +8175,7 @@
         <v>1.0</v>
       </c>
       <c r="K34" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="L34" t="n">
         <v>2.43</v>
@@ -8037,10 +8187,10 @@
         <v>3.03</v>
       </c>
       <c r="O34" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="P34" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="Q34" t="n">
         <v>18.0</v>
@@ -8088,16 +8238,16 @@
         <v>19.0</v>
       </c>
       <c r="AF34" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="AG34" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AH34" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AI34" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AJ34" t="n">
         <v>4.0</v>
@@ -8106,10 +8256,10 @@
         <v>0.0</v>
       </c>
       <c r="AL34" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="AM34" t="s">
-        <v>265</v>
+        <v>314</v>
       </c>
       <c r="AN34" t="n">
         <v>1.5</v>
@@ -8213,16 +8363,16 @@
         <v>103</v>
       </c>
       <c r="B35" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C35" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D35" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="E35" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="F35" t="n">
         <v>1.0</v>
@@ -8231,7 +8381,7 @@
         <v>1.0</v>
       </c>
       <c r="H35" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="I35" t="n">
         <v>1.0</v>
@@ -8240,7 +8390,7 @@
         <v>0.0</v>
       </c>
       <c r="K35" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="L35" t="n">
         <v>1.69</v>
@@ -8252,10 +8402,10 @@
         <v>5.31</v>
       </c>
       <c r="O35" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="P35" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="Q35" t="n">
         <v>10.0</v>
@@ -8303,16 +8453,16 @@
         <v>25.0</v>
       </c>
       <c r="AF35" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="AG35" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AH35" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AI35" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AJ35" t="n">
         <v>5.0</v>
@@ -8321,10 +8471,10 @@
         <v>0.0</v>
       </c>
       <c r="AL35" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="AM35" t="s">
-        <v>273</v>
+        <v>322</v>
       </c>
       <c r="AN35" t="n">
         <v>2.3</v>
@@ -8428,16 +8578,16 @@
         <v>104</v>
       </c>
       <c r="B36" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C36" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D36" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="E36" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="F36" t="n">
         <v>2.0</v>
@@ -8446,7 +8596,7 @@
         <v>0.0</v>
       </c>
       <c r="H36" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="I36" t="n">
         <v>0.0</v>
@@ -8455,7 +8605,7 @@
         <v>0.0</v>
       </c>
       <c r="K36" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="L36" t="n">
         <v>1.85</v>
@@ -8467,10 +8617,10 @@
         <v>4.37</v>
       </c>
       <c r="O36" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="P36" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="Q36" t="n">
         <v>15.0</v>
@@ -8518,16 +8668,16 @@
         <v>21.0</v>
       </c>
       <c r="AF36" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="AG36" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AH36" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AI36" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AJ36" t="n">
         <v>2.0</v>
@@ -8536,10 +8686,10 @@
         <v>0.0</v>
       </c>
       <c r="AL36" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="AM36" t="s">
-        <v>274</v>
+        <v>323</v>
       </c>
       <c r="AN36" t="n">
         <v>1.3</v>
@@ -8643,16 +8793,16 @@
         <v>105</v>
       </c>
       <c r="B37" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C37" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D37" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="E37" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="F37" t="n">
         <v>0.0</v>
@@ -8661,7 +8811,7 @@
         <v>0.0</v>
       </c>
       <c r="H37" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="I37" t="n">
         <v>0.0</v>
@@ -8670,7 +8820,7 @@
         <v>0.0</v>
       </c>
       <c r="K37" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="L37" t="n">
         <v>1.86</v>
@@ -8682,10 +8832,10 @@
         <v>4.18</v>
       </c>
       <c r="O37" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="P37" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="Q37" t="n">
         <v>12.0</v>
@@ -8733,16 +8883,16 @@
         <v>23.0</v>
       </c>
       <c r="AF37" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="AG37" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AH37" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AI37" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AJ37" t="n">
         <v>0.0</v>
@@ -8751,10 +8901,10 @@
         <v>0.0</v>
       </c>
       <c r="AL37" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="AM37" t="s">
-        <v>275</v>
+        <v>324</v>
       </c>
       <c r="AN37" t="n">
         <v>1.0</v>
@@ -8858,16 +9008,16 @@
         <v>106</v>
       </c>
       <c r="B38" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C38" t="n" s="2">
         <v>45555.0</v>
       </c>
       <c r="D38" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="E38" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="F38" t="n">
         <v>8.0</v>
@@ -8876,7 +9026,7 @@
         <v>0.0</v>
       </c>
       <c r="H38" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="I38" t="n">
         <v>6.0</v>
@@ -8885,7 +9035,7 @@
         <v>0.0</v>
       </c>
       <c r="K38" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="L38" t="n">
         <v>1.55</v>
@@ -8897,10 +9047,10 @@
         <v>6.57</v>
       </c>
       <c r="O38" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="P38" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="Q38" t="n">
         <v>18.0</v>
@@ -8948,16 +9098,16 @@
         <v>20.0</v>
       </c>
       <c r="AF38" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="AG38" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AH38" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AI38" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AJ38" t="n">
         <v>1.0</v>
@@ -8966,10 +9116,10 @@
         <v>0.0</v>
       </c>
       <c r="AL38" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="AM38" t="s">
-        <v>262</v>
+        <v>311</v>
       </c>
       <c r="AN38" t="n">
         <v>4.7</v>
@@ -9073,16 +9223,16 @@
         <v>107</v>
       </c>
       <c r="B39" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C39" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D39" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="E39" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="F39" t="n">
         <v>3.0</v>
@@ -9091,7 +9241,7 @@
         <v>3.0</v>
       </c>
       <c r="H39" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="I39" t="n">
         <v>2.0</v>
@@ -9100,7 +9250,7 @@
         <v>2.0</v>
       </c>
       <c r="K39" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="L39" t="n">
         <v>1.74</v>
@@ -9112,10 +9262,10 @@
         <v>4.93</v>
       </c>
       <c r="O39" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="P39" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="Q39" t="n">
         <v>15.0</v>
@@ -9163,16 +9313,16 @@
         <v>28.0</v>
       </c>
       <c r="AF39" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="AG39" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AH39" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AI39" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AJ39" t="n">
         <v>4.0</v>
@@ -9181,10 +9331,10 @@
         <v>0.0</v>
       </c>
       <c r="AL39" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="AM39" t="s">
-        <v>276</v>
+        <v>325</v>
       </c>
       <c r="AN39" t="n">
         <v>2.6</v>
@@ -9288,16 +9438,16 @@
         <v>108</v>
       </c>
       <c r="B40" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C40" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D40" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="E40" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="F40" t="n">
         <v>1.0</v>
@@ -9306,7 +9456,7 @@
         <v>1.0</v>
       </c>
       <c r="H40" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="I40" t="n">
         <v>1.0</v>
@@ -9315,7 +9465,7 @@
         <v>0.0</v>
       </c>
       <c r="K40" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="L40" t="n">
         <v>2.44</v>
@@ -9327,10 +9477,10 @@
         <v>3.09</v>
       </c>
       <c r="O40" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="P40" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="Q40" t="n">
         <v>11.0</v>
@@ -9378,16 +9528,16 @@
         <v>36.0</v>
       </c>
       <c r="AF40" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="AG40" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AH40" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AI40" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AJ40" t="n">
         <v>6.0</v>
@@ -9396,10 +9546,10 @@
         <v>0.0</v>
       </c>
       <c r="AL40" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="AM40" t="s">
-        <v>260</v>
+        <v>309</v>
       </c>
       <c r="AN40" t="n">
         <v>1.4</v>
@@ -9503,16 +9653,16 @@
         <v>109</v>
       </c>
       <c r="B41" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C41" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D41" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="E41" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="F41" t="n">
         <v>1.0</v>
@@ -9521,7 +9671,7 @@
         <v>1.0</v>
       </c>
       <c r="H41" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="I41" t="n">
         <v>1.0</v>
@@ -9530,7 +9680,7 @@
         <v>0.0</v>
       </c>
       <c r="K41" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="L41" t="n">
         <v>6.91</v>
@@ -9542,10 +9692,10 @@
         <v>1.44</v>
       </c>
       <c r="O41" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="P41" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="Q41" t="n">
         <v>8.0</v>
@@ -9593,16 +9743,16 @@
         <v>17.0</v>
       </c>
       <c r="AF41" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="AG41" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AH41" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AI41" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AJ41" t="n">
         <v>3.0</v>
@@ -9611,10 +9761,10 @@
         <v>0.0</v>
       </c>
       <c r="AL41" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="AM41" t="s">
-        <v>272</v>
+        <v>321</v>
       </c>
       <c r="AN41" t="n">
         <v>0.3</v>
@@ -9718,16 +9868,16 @@
         <v>110</v>
       </c>
       <c r="B42" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C42" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D42" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="E42" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="F42" t="n">
         <v>3.0</v>
@@ -9736,7 +9886,7 @@
         <v>1.0</v>
       </c>
       <c r="H42" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="I42" t="n">
         <v>1.0</v>
@@ -9745,7 +9895,7 @@
         <v>1.0</v>
       </c>
       <c r="K42" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="L42" t="n">
         <v>1.38</v>
@@ -9757,10 +9907,10 @@
         <v>8.11</v>
       </c>
       <c r="O42" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="P42" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="Q42" t="n">
         <v>14.0</v>
@@ -9808,16 +9958,16 @@
         <v>27.0</v>
       </c>
       <c r="AF42" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="AG42" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AH42" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AI42" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AJ42" t="n">
         <v>4.0</v>
@@ -9826,10 +9976,10 @@
         <v>0.0</v>
       </c>
       <c r="AL42" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="AM42" t="s">
-        <v>264</v>
+        <v>313</v>
       </c>
       <c r="AN42" t="n">
         <v>1.9</v>
@@ -9933,16 +10083,16 @@
         <v>111</v>
       </c>
       <c r="B43" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C43" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D43" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="E43" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="F43" t="n">
         <v>1.0</v>
@@ -9951,7 +10101,7 @@
         <v>1.0</v>
       </c>
       <c r="H43" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="I43" t="n">
         <v>1.0</v>
@@ -9960,7 +10110,7 @@
         <v>1.0</v>
       </c>
       <c r="K43" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="L43" t="n">
         <v>3.32</v>
@@ -9972,10 +10122,10 @@
         <v>2.39</v>
       </c>
       <c r="O43" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="P43" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="Q43" t="n">
         <v>4.0</v>
@@ -10023,16 +10173,16 @@
         <v>29.0</v>
       </c>
       <c r="AF43" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="AG43" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AH43" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AI43" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AJ43" t="n">
         <v>5.0</v>
@@ -10041,10 +10191,10 @@
         <v>0.0</v>
       </c>
       <c r="AL43" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="AM43" t="s">
-        <v>267</v>
+        <v>316</v>
       </c>
       <c r="AN43" t="n">
         <v>0.9</v>
@@ -10148,16 +10298,16 @@
         <v>112</v>
       </c>
       <c r="B44" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C44" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D44" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="E44" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="F44" t="n">
         <v>2.0</v>
@@ -10166,7 +10316,7 @@
         <v>0.0</v>
       </c>
       <c r="H44" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="I44" t="n">
         <v>1.0</v>
@@ -10175,7 +10325,7 @@
         <v>0.0</v>
       </c>
       <c r="K44" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="L44" t="n">
         <v>2.16</v>
@@ -10187,10 +10337,10 @@
         <v>3.44</v>
       </c>
       <c r="O44" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="P44" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="Q44" t="n">
         <v>9.0</v>
@@ -10238,16 +10388,16 @@
         <v>33.0</v>
       </c>
       <c r="AF44" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="AG44" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AH44" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AI44" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AJ44" t="n">
         <v>2.0</v>
@@ -10256,10 +10406,10 @@
         <v>0.0</v>
       </c>
       <c r="AL44" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="AM44" t="s">
-        <v>277</v>
+        <v>326</v>
       </c>
       <c r="AN44" t="n">
         <v>0.5</v>
@@ -10363,16 +10513,16 @@
         <v>113</v>
       </c>
       <c r="B45" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C45" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D45" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="E45" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="F45" t="n">
         <v>3.0</v>
@@ -10381,7 +10531,7 @@
         <v>2.0</v>
       </c>
       <c r="H45" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="I45" t="n">
         <v>0.0</v>
@@ -10390,7 +10540,7 @@
         <v>1.0</v>
       </c>
       <c r="K45" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="L45" t="n">
         <v>2.39</v>
@@ -10402,10 +10552,10 @@
         <v>3.14</v>
       </c>
       <c r="O45" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="P45" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="Q45" t="n">
         <v>14.0</v>
@@ -10453,16 +10603,16 @@
         <v>33.0</v>
       </c>
       <c r="AF45" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="AG45" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AH45" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AI45" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AJ45" t="n">
         <v>7.0</v>
@@ -10471,10 +10621,10 @@
         <v>0.0</v>
       </c>
       <c r="AL45" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="AM45" t="s">
-        <v>273</v>
+        <v>322</v>
       </c>
       <c r="AN45" t="n">
         <v>2.0</v>
@@ -10578,16 +10728,16 @@
         <v>114</v>
       </c>
       <c r="B46" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C46" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D46" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="E46" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="F46" t="n">
         <v>2.0</v>
@@ -10596,7 +10746,7 @@
         <v>3.0</v>
       </c>
       <c r="H46" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="I46" t="n">
         <v>0.0</v>
@@ -10605,7 +10755,7 @@
         <v>0.0</v>
       </c>
       <c r="K46" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="L46" t="n">
         <v>3.06</v>
@@ -10617,10 +10767,10 @@
         <v>2.21</v>
       </c>
       <c r="O46" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="P46" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="Q46" t="n">
         <v>18.0</v>
@@ -10668,16 +10818,16 @@
         <v>20.0</v>
       </c>
       <c r="AF46" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="AG46" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AH46" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AI46" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AJ46" t="n">
         <v>7.0</v>
@@ -10686,10 +10836,10 @@
         <v>1.0</v>
       </c>
       <c r="AL46" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="AM46" t="s">
-        <v>268</v>
+        <v>317</v>
       </c>
       <c r="AN46" t="n">
         <v>3.0</v>
@@ -10793,16 +10943,16 @@
         <v>115</v>
       </c>
       <c r="B47" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C47" t="n" s="2">
         <v>45562.0</v>
       </c>
       <c r="D47" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="E47" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="F47" t="n">
         <v>3.0</v>
@@ -10811,7 +10961,7 @@
         <v>0.0</v>
       </c>
       <c r="H47" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="I47" t="n">
         <v>2.0</v>
@@ -10820,7 +10970,7 @@
         <v>0.0</v>
       </c>
       <c r="K47" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="L47" t="n">
         <v>2.86</v>
@@ -10832,10 +10982,10 @@
         <v>2.62</v>
       </c>
       <c r="O47" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="P47" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="Q47" t="n">
         <v>15.0</v>
@@ -10883,16 +11033,16 @@
         <v>29.0</v>
       </c>
       <c r="AF47" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="AG47" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AH47" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AI47" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AJ47" t="n">
         <v>2.0</v>
@@ -10901,10 +11051,10 @@
         <v>0.0</v>
       </c>
       <c r="AL47" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="AM47" t="s">
-        <v>260</v>
+        <v>309</v>
       </c>
       <c r="AN47" t="n">
         <v>2.5</v>
@@ -11008,16 +11158,16 @@
         <v>116</v>
       </c>
       <c r="B48" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C48" t="n" s="2">
         <v>45562.0</v>
       </c>
       <c r="D48" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="E48" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="F48" t="n">
         <v>3.0</v>
@@ -11026,7 +11176,7 @@
         <v>1.0</v>
       </c>
       <c r="H48" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="I48" t="n">
         <v>1.0</v>
@@ -11035,7 +11185,7 @@
         <v>0.0</v>
       </c>
       <c r="K48" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="L48" t="n">
         <v>1.37</v>
@@ -11047,10 +11197,10 @@
         <v>8.67</v>
       </c>
       <c r="O48" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="P48" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="Q48" t="n">
         <v>22.0</v>
@@ -11098,16 +11248,16 @@
         <v>20.0</v>
       </c>
       <c r="AF48" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="AG48" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AH48" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AI48" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AJ48" t="n">
         <v>4.0</v>
@@ -11116,10 +11266,10 @@
         <v>0.0</v>
       </c>
       <c r="AL48" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="AM48" t="s">
-        <v>273</v>
+        <v>322</v>
       </c>
       <c r="AN48" t="n">
         <v>3.0</v>
@@ -11223,16 +11373,16 @@
         <v>117</v>
       </c>
       <c r="B49" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C49" t="n" s="2">
         <v>45563.0</v>
       </c>
       <c r="D49" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="E49" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F49" t="n">
         <v>0.0</v>
@@ -11241,7 +11391,7 @@
         <v>0.0</v>
       </c>
       <c r="H49" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="I49" t="n">
         <v>0.0</v>
@@ -11250,7 +11400,7 @@
         <v>0.0</v>
       </c>
       <c r="K49" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="L49" t="n">
         <v>2.08</v>
@@ -11262,10 +11412,10 @@
         <v>3.83</v>
       </c>
       <c r="O49" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="P49" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="Q49" t="n">
         <v>22.0</v>
@@ -11313,16 +11463,16 @@
         <v>23.0</v>
       </c>
       <c r="AF49" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="AG49" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AH49" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AI49" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AJ49" t="n">
         <v>6.0</v>
@@ -11331,10 +11481,10 @@
         <v>1.0</v>
       </c>
       <c r="AL49" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="AM49" t="s">
-        <v>269</v>
+        <v>318</v>
       </c>
       <c r="AN49" t="n">
         <v>1.9</v>
@@ -11438,16 +11588,16 @@
         <v>118</v>
       </c>
       <c r="B50" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C50" t="n" s="2">
         <v>45563.0</v>
       </c>
       <c r="D50" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="E50" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="F50" t="n">
         <v>0.0</v>
@@ -11456,7 +11606,7 @@
         <v>3.0</v>
       </c>
       <c r="H50" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="I50" t="n">
         <v>0.0</v>
@@ -11465,7 +11615,7 @@
         <v>2.0</v>
       </c>
       <c r="K50" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="L50" t="n">
         <v>4.7</v>
@@ -11477,10 +11627,10 @@
         <v>1.81</v>
       </c>
       <c r="O50" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="P50" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="Q50" t="n">
         <v>7.0</v>
@@ -11528,16 +11678,16 @@
         <v>20.0</v>
       </c>
       <c r="AF50" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="AG50" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AH50" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AI50" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AJ50" t="n">
         <v>3.0</v>
@@ -11546,10 +11696,10 @@
         <v>0.0</v>
       </c>
       <c r="AL50" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="AM50" t="s">
-        <v>275</v>
+        <v>324</v>
       </c>
       <c r="AN50" t="n">
         <v>0.4</v>
@@ -11653,16 +11803,16 @@
         <v>119</v>
       </c>
       <c r="B51" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C51" t="n" s="2">
         <v>45563.0</v>
       </c>
       <c r="D51" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="E51" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="F51" t="n">
         <v>2.0</v>
@@ -11671,7 +11821,7 @@
         <v>1.0</v>
       </c>
       <c r="H51" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="I51" t="n">
         <v>1.0</v>
@@ -11680,7 +11830,7 @@
         <v>1.0</v>
       </c>
       <c r="K51" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="L51" t="n">
         <v>1.34</v>
@@ -11692,10 +11842,10 @@
         <v>8.48</v>
       </c>
       <c r="O51" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="P51" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="Q51" t="n">
         <v>21.0</v>
@@ -11743,16 +11893,16 @@
         <v>34.0</v>
       </c>
       <c r="AF51" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="AG51" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AH51" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AI51" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AJ51" t="n">
         <v>7.0</v>
@@ -11761,10 +11911,10 @@
         <v>1.0</v>
       </c>
       <c r="AL51" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="AM51" t="s">
-        <v>266</v>
+        <v>315</v>
       </c>
       <c r="AN51" t="n">
         <v>3.2</v>
@@ -11868,16 +12018,16 @@
         <v>120</v>
       </c>
       <c r="B52" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C52" t="n" s="2">
         <v>45564.0</v>
       </c>
       <c r="D52" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="E52" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="F52" t="n">
         <v>1.0</v>
@@ -11886,7 +12036,7 @@
         <v>2.0</v>
       </c>
       <c r="H52" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="I52" t="n">
         <v>1.0</v>
@@ -11895,7 +12045,7 @@
         <v>1.0</v>
       </c>
       <c r="K52" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="L52" t="n">
         <v>2.5</v>
@@ -11907,10 +12057,10 @@
         <v>2.85</v>
       </c>
       <c r="O52" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="P52" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="Q52" t="n">
         <v>10.0</v>
@@ -11958,16 +12108,16 @@
         <v>27.0</v>
       </c>
       <c r="AF52" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="AG52" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AH52" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AI52" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AJ52" t="n">
         <v>4.0</v>
@@ -11976,10 +12126,10 @@
         <v>0.0</v>
       </c>
       <c r="AL52" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="AM52" t="s">
-        <v>261</v>
+        <v>310</v>
       </c>
       <c r="AN52" t="n">
         <v>0.9</v>
@@ -12083,16 +12233,16 @@
         <v>121</v>
       </c>
       <c r="B53" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C53" t="n" s="2">
         <v>45564.0</v>
       </c>
       <c r="D53" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="E53" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="F53" t="n">
         <v>1.0</v>
@@ -12101,7 +12251,7 @@
         <v>3.0</v>
       </c>
       <c r="H53" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="I53" t="n">
         <v>0.0</v>
@@ -12110,7 +12260,7 @@
         <v>2.0</v>
       </c>
       <c r="K53" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="L53" t="n">
         <v>3.59</v>
@@ -12122,10 +12272,10 @@
         <v>2.22</v>
       </c>
       <c r="O53" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="P53" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="Q53" t="n">
         <v>14.0</v>
@@ -12173,16 +12323,16 @@
         <v>18.0</v>
       </c>
       <c r="AF53" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="AG53" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AH53" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AI53" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AJ53" t="n">
         <v>3.0</v>
@@ -12191,10 +12341,10 @@
         <v>0.0</v>
       </c>
       <c r="AL53" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="AM53" t="s">
-        <v>274</v>
+        <v>323</v>
       </c>
       <c r="AN53" t="n">
         <v>1.1</v>
@@ -12298,16 +12448,16 @@
         <v>122</v>
       </c>
       <c r="B54" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C54" t="n" s="2">
         <v>45564.0</v>
       </c>
       <c r="D54" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="E54" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="F54" t="n">
         <v>2.0</v>
@@ -12316,7 +12466,7 @@
         <v>2.0</v>
       </c>
       <c r="H54" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="I54" t="n">
         <v>1.0</v>
@@ -12325,7 +12475,7 @@
         <v>0.0</v>
       </c>
       <c r="K54" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="L54" t="n">
         <v>1.78</v>
@@ -12337,10 +12487,10 @@
         <v>4.92</v>
       </c>
       <c r="O54" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="P54" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="Q54" t="n">
         <v>16.0</v>
@@ -12388,16 +12538,16 @@
         <v>23.0</v>
       </c>
       <c r="AF54" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="AG54" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AH54" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AI54" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="AJ54" t="n">
         <v>4.0</v>
@@ -12406,10 +12556,10 @@
         <v>1.0</v>
       </c>
       <c r="AL54" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="AM54" t="s">
-        <v>270</v>
+        <v>319</v>
       </c>
       <c r="AN54" t="n">
         <v>1.8</v>
@@ -12513,16 +12663,16 @@
         <v>123</v>
       </c>
       <c r="B55" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C55" t="n" s="2">
         <v>45564.0</v>
       </c>
       <c r="D55" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="E55" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="F55" t="n">
         <v>1.0</v>
@@ -12531,7 +12681,7 @@
         <v>0.0</v>
       </c>
       <c r="H55" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="I55" t="n">
         <v>1.0</v>
@@ -12540,7 +12690,7 @@
         <v>0.0</v>
       </c>
       <c r="K55" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="L55" t="n">
         <v>3.56</v>
@@ -12552,10 +12702,10 @@
         <v>2.03</v>
       </c>
       <c r="O55" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="P55" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="Q55" t="n">
         <v>14.0</v>
@@ -12603,16 +12753,16 @@
         <v>24.0</v>
       </c>
       <c r="AF55" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="AG55" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AH55" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AI55" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AJ55" t="n">
         <v>3.0</v>
@@ -12621,10 +12771,10 @@
         <v>0.0</v>
       </c>
       <c r="AL55" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="AM55" t="s">
-        <v>265</v>
+        <v>314</v>
       </c>
       <c r="AN55" t="n">
         <v>1.3</v>
@@ -12721,6 +12871,3876 @@
       </c>
       <c r="BS55" t="n">
         <v>63.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56" t="s">
+        <v>142</v>
+      </c>
+      <c r="C56" t="n" s="2">
+        <v>45569.0</v>
+      </c>
+      <c r="D56" t="s">
+        <v>160</v>
+      </c>
+      <c r="E56" t="s">
+        <v>148</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H56" t="s">
+        <v>163</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K56" t="s">
+        <v>163</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M56" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="N56" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="O56" t="s">
+        <v>168</v>
+      </c>
+      <c r="P56" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U56" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>235</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>235</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AL56" t="s">
+        <v>290</v>
+      </c>
+      <c r="AM56" t="s">
+        <v>327</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA56" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="BL56" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="BM56" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="BN56" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="BO56" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="BP56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ56" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="BR56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS56" t="n">
+        <v>116.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>125</v>
+      </c>
+      <c r="B57" t="s">
+        <v>142</v>
+      </c>
+      <c r="C57" t="n" s="2">
+        <v>45570.0</v>
+      </c>
+      <c r="D57" t="s">
+        <v>155</v>
+      </c>
+      <c r="E57" t="s">
+        <v>147</v>
+      </c>
+      <c r="F57" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H57" t="s">
+        <v>162</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K57" t="s">
+        <v>162</v>
+      </c>
+      <c r="L57" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="N57" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="O57" t="s">
+        <v>166</v>
+      </c>
+      <c r="P57" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U57" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>192</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>234</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL57" t="s">
+        <v>291</v>
+      </c>
+      <c r="AM57" t="s">
+        <v>316</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF57" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BG57" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>193.0</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ57" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="BK57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL57" t="n">
+        <v>193.0</v>
+      </c>
+      <c r="BM57" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="BN57" t="n">
+        <v>228.0</v>
+      </c>
+      <c r="BO57" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="BP57" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="BQ57" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="BR57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS57" t="n">
+        <v>107.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>126</v>
+      </c>
+      <c r="B58" t="s">
+        <v>142</v>
+      </c>
+      <c r="C58" t="n" s="2">
+        <v>45570.0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>154</v>
+      </c>
+      <c r="E58" t="s">
+        <v>150</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H58" t="s">
+        <v>162</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K58" t="s">
+        <v>161</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="N58" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="O58" t="s">
+        <v>164</v>
+      </c>
+      <c r="P58" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V58" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>225</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>234</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>235</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL58" t="s">
+        <v>292</v>
+      </c>
+      <c r="AM58" t="s">
+        <v>320</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA58" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ58" t="n">
+        <v>137.0</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL58" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="BM58" t="n">
+        <v>137.0</v>
+      </c>
+      <c r="BN58" t="n">
+        <v>257.0</v>
+      </c>
+      <c r="BO58" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BP58" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="BQ58" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="BR58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS58" t="n">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>127</v>
+      </c>
+      <c r="B59" t="s">
+        <v>142</v>
+      </c>
+      <c r="C59" t="n" s="2">
+        <v>45570.0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>151</v>
+      </c>
+      <c r="E59" t="s">
+        <v>146</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H59" t="s">
+        <v>161</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K59" t="s">
+        <v>161</v>
+      </c>
+      <c r="L59" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="N59" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="O59" t="s">
+        <v>170</v>
+      </c>
+      <c r="P59" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U59" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V59" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>226</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>234</v>
+      </c>
+      <c r="AI59" t="s">
+        <v>235</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL59" t="s">
+        <v>293</v>
+      </c>
+      <c r="AM59" t="s">
+        <v>311</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA59" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>268.0</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL59" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="BM59" t="n">
+        <v>268.0</v>
+      </c>
+      <c r="BN59" t="n">
+        <v>387.0</v>
+      </c>
+      <c r="BO59" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="BP59" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="BQ59" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="BR59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS59" t="n">
+        <v>117.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>128</v>
+      </c>
+      <c r="B60" t="s">
+        <v>142</v>
+      </c>
+      <c r="C60" t="n" s="2">
+        <v>45571.0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>153</v>
+      </c>
+      <c r="E60" t="s">
+        <v>157</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H60" t="s">
+        <v>162</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K60" t="s">
+        <v>162</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="N60" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="O60" t="s">
+        <v>166</v>
+      </c>
+      <c r="P60" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S60" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="T60" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="U60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V60" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>214</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>235</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>235</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL60" t="s">
+        <v>294</v>
+      </c>
+      <c r="AM60" t="s">
+        <v>315</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>132.0</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL60" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="BM60" t="n">
+        <v>132.0</v>
+      </c>
+      <c r="BN60" t="n">
+        <v>198.0</v>
+      </c>
+      <c r="BO60" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="BP60" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="BQ60" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="BR60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS60" t="n">
+        <v>90.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>129</v>
+      </c>
+      <c r="B61" t="s">
+        <v>142</v>
+      </c>
+      <c r="C61" t="n" s="2">
+        <v>45571.0</v>
+      </c>
+      <c r="D61" t="s">
+        <v>144</v>
+      </c>
+      <c r="E61" t="s">
+        <v>143</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H61" t="s">
+        <v>162</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K61" t="s">
+        <v>162</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="N61" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="O61" t="s">
+        <v>166</v>
+      </c>
+      <c r="P61" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S61" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U61" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>227</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>235</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>235</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AL61" t="s">
+        <v>295</v>
+      </c>
+      <c r="AM61" t="s">
+        <v>312</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BA61" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>700.0</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>121.0</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="BL61" t="n">
+        <v>121.0</v>
+      </c>
+      <c r="BM61" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="BN61" t="n">
+        <v>217.0</v>
+      </c>
+      <c r="BO61" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="BP61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ61" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="BR61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS61" t="n">
+        <v>110.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>130</v>
+      </c>
+      <c r="B62" t="s">
+        <v>142</v>
+      </c>
+      <c r="C62" t="n" s="2">
+        <v>45571.0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>145</v>
+      </c>
+      <c r="E62" t="s">
+        <v>149</v>
+      </c>
+      <c r="F62" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H62" t="s">
+        <v>162</v>
+      </c>
+      <c r="I62" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K62" t="s">
+        <v>162</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="N62" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="O62" t="s">
+        <v>174</v>
+      </c>
+      <c r="P62" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S62" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="T62" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U62" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V62" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>234</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL62" t="s">
+        <v>296</v>
+      </c>
+      <c r="AM62" t="s">
+        <v>317</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW62" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AX62" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>1200.0</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>190.0</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ62" t="n">
+        <v>266.0</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL62" t="n">
+        <v>190.0</v>
+      </c>
+      <c r="BM62" t="n">
+        <v>266.0</v>
+      </c>
+      <c r="BN62" t="n">
+        <v>456.0</v>
+      </c>
+      <c r="BO62" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="BP62" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="BQ62" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="BR62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BS62" t="n">
+        <v>164.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>131</v>
+      </c>
+      <c r="B63" t="s">
+        <v>142</v>
+      </c>
+      <c r="C63" t="n" s="2">
+        <v>45571.0</v>
+      </c>
+      <c r="D63" t="s">
+        <v>159</v>
+      </c>
+      <c r="E63" t="s">
+        <v>156</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H63" t="s">
+        <v>163</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K63" t="s">
+        <v>161</v>
+      </c>
+      <c r="L63" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="N63" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="O63" t="s">
+        <v>170</v>
+      </c>
+      <c r="P63" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S63" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="T63" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U63" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V63" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>193</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>234</v>
+      </c>
+      <c r="AI63" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL63" t="s">
+        <v>297</v>
+      </c>
+      <c r="AM63" t="s">
+        <v>313</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX63" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA63" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BF63" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ63" t="n">
+        <v>213.0</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL63" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="BM63" t="n">
+        <v>213.0</v>
+      </c>
+      <c r="BN63" t="n">
+        <v>276.0</v>
+      </c>
+      <c r="BO63" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="BP63" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="BQ63" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="BR63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BS63" t="n">
+        <v>124.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>132</v>
+      </c>
+      <c r="B64" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" t="n" s="2">
+        <v>45571.0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>158</v>
+      </c>
+      <c r="E64" t="s">
+        <v>152</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H64" t="s">
+        <v>163</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K64" t="s">
+        <v>162</v>
+      </c>
+      <c r="L64" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="N64" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="O64" t="s">
+        <v>166</v>
+      </c>
+      <c r="P64" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="T64" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="U64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V64" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>228</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH64" t="s">
+        <v>235</v>
+      </c>
+      <c r="AI64" t="s">
+        <v>235</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL64" t="s">
+        <v>298</v>
+      </c>
+      <c r="AM64" t="s">
+        <v>325</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF64" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ64" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL64" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="BM64" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="BN64" t="n">
+        <v>143.0</v>
+      </c>
+      <c r="BO64" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="BP64" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="BQ64" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="BR64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS64" t="n">
+        <v>105.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>133</v>
+      </c>
+      <c r="B65" t="s">
+        <v>142</v>
+      </c>
+      <c r="C65" t="n" s="2">
+        <v>45583.0</v>
+      </c>
+      <c r="D65" t="s">
+        <v>146</v>
+      </c>
+      <c r="E65" t="s">
+        <v>154</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H65" t="s">
+        <v>163</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K65" t="s">
+        <v>163</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N65" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="O65" t="s">
+        <v>168</v>
+      </c>
+      <c r="P65" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V65" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="W65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>229</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH65" t="s">
+        <v>235</v>
+      </c>
+      <c r="AI65" t="s">
+        <v>235</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL65" t="s">
+        <v>299</v>
+      </c>
+      <c r="AM65" t="s">
+        <v>323</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX65" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AY65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AZ65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA65" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="BJ65" t="n">
+        <v>253.0</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL65" t="n">
+        <v>163.0</v>
+      </c>
+      <c r="BM65" t="n">
+        <v>253.0</v>
+      </c>
+      <c r="BN65" t="n">
+        <v>416.0</v>
+      </c>
+      <c r="BO65" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="BP65" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="BQ65" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="BR65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS65" t="n">
+        <v>66.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>134</v>
+      </c>
+      <c r="B66" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66" t="n" s="2">
+        <v>45584.0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>144</v>
+      </c>
+      <c r="E66" t="s">
+        <v>151</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H66" t="s">
+        <v>163</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K66" t="s">
+        <v>163</v>
+      </c>
+      <c r="L66" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="N66" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="O66" t="s">
+        <v>168</v>
+      </c>
+      <c r="P66" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S66" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="T66" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U66" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V66" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>200</v>
+      </c>
+      <c r="AG66" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH66" t="s">
+        <v>235</v>
+      </c>
+      <c r="AI66" t="s">
+        <v>235</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL66" t="s">
+        <v>300</v>
+      </c>
+      <c r="AM66" t="s">
+        <v>324</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AX66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BF66" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>154.0</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ66" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL66" t="n">
+        <v>154.0</v>
+      </c>
+      <c r="BM66" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="BN66" t="n">
+        <v>265.0</v>
+      </c>
+      <c r="BO66" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="BP66" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="BQ66" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="BR66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BS66" t="n">
+        <v>78.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>135</v>
+      </c>
+      <c r="B67" t="s">
+        <v>142</v>
+      </c>
+      <c r="C67" t="n" s="2">
+        <v>45584.0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>155</v>
+      </c>
+      <c r="E67" t="s">
+        <v>156</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H67" t="s">
+        <v>161</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K67" t="s">
+        <v>161</v>
+      </c>
+      <c r="L67" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="N67" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O67" t="s">
+        <v>164</v>
+      </c>
+      <c r="P67" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S67" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="T67" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V67" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="AF67" t="s">
+        <v>209</v>
+      </c>
+      <c r="AG67" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH67" t="s">
+        <v>235</v>
+      </c>
+      <c r="AI67" t="s">
+        <v>235</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL67" t="s">
+        <v>301</v>
+      </c>
+      <c r="AM67" t="s">
+        <v>327</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ67" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL67" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="BM67" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="BN67" t="n">
+        <v>148.0</v>
+      </c>
+      <c r="BO67" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="BP67" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="BQ67" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="BR67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS67" t="n">
+        <v>72.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>136</v>
+      </c>
+      <c r="B68" t="s">
+        <v>142</v>
+      </c>
+      <c r="C68" t="n" s="2">
+        <v>45584.0</v>
+      </c>
+      <c r="D68" t="s">
+        <v>152</v>
+      </c>
+      <c r="E68" t="s">
+        <v>159</v>
+      </c>
+      <c r="F68" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H68" t="s">
+        <v>162</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K68" t="s">
+        <v>162</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M68" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="N68" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="O68" t="s">
+        <v>166</v>
+      </c>
+      <c r="P68" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="R68" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="S68" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="T68" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="U68" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V68" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AF68" t="s">
+        <v>230</v>
+      </c>
+      <c r="AG68" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH68" t="s">
+        <v>234</v>
+      </c>
+      <c r="AI68" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL68" t="s">
+        <v>302</v>
+      </c>
+      <c r="AM68" t="s">
+        <v>309</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AX68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>157.0</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ68" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL68" t="n">
+        <v>157.0</v>
+      </c>
+      <c r="BM68" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="BN68" t="n">
+        <v>239.0</v>
+      </c>
+      <c r="BO68" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BP68" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BQ68" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BR68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS68" t="n">
+        <v>140.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>137</v>
+      </c>
+      <c r="B69" t="s">
+        <v>142</v>
+      </c>
+      <c r="C69" t="n" s="2">
+        <v>45585.0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>143</v>
+      </c>
+      <c r="E69" t="s">
+        <v>153</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H69" t="s">
+        <v>161</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K69" t="s">
+        <v>161</v>
+      </c>
+      <c r="L69" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="N69" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="O69" t="s">
+        <v>164</v>
+      </c>
+      <c r="P69" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="R69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S69" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="T69" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="U69" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V69" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="AF69" t="s">
+        <v>225</v>
+      </c>
+      <c r="AG69" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH69" t="s">
+        <v>234</v>
+      </c>
+      <c r="AI69" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL69" t="s">
+        <v>303</v>
+      </c>
+      <c r="AM69" t="s">
+        <v>319</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX69" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA69" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BF69" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ69" t="n">
+        <v>196.0</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL69" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BM69" t="n">
+        <v>196.0</v>
+      </c>
+      <c r="BN69" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="BO69" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BP69" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="BQ69" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BR69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS69" t="n">
+        <v>125.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" t="s">
+        <v>142</v>
+      </c>
+      <c r="C70" t="n" s="2">
+        <v>45585.0</v>
+      </c>
+      <c r="D70" t="s">
+        <v>147</v>
+      </c>
+      <c r="E70" t="s">
+        <v>145</v>
+      </c>
+      <c r="F70" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H70" t="s">
+        <v>162</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K70" t="s">
+        <v>162</v>
+      </c>
+      <c r="L70" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="N70" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O70" t="s">
+        <v>166</v>
+      </c>
+      <c r="P70" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="R70" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="S70" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="T70" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U70" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V70" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AF70" t="s">
+        <v>231</v>
+      </c>
+      <c r="AG70" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH70" t="s">
+        <v>234</v>
+      </c>
+      <c r="AI70" t="s">
+        <v>235</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL70" t="s">
+        <v>304</v>
+      </c>
+      <c r="AM70" t="s">
+        <v>326</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA70" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>118.0</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="BK70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL70" t="n">
+        <v>118.0</v>
+      </c>
+      <c r="BM70" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="BN70" t="n">
+        <v>270.0</v>
+      </c>
+      <c r="BO70" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="BP70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BQ70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BR70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BS70" t="n">
+        <v>122.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>139</v>
+      </c>
+      <c r="B71" t="s">
+        <v>142</v>
+      </c>
+      <c r="C71" t="n" s="2">
+        <v>45585.0</v>
+      </c>
+      <c r="D71" t="s">
+        <v>157</v>
+      </c>
+      <c r="E71" t="s">
+        <v>158</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H71" t="s">
+        <v>163</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K71" t="s">
+        <v>163</v>
+      </c>
+      <c r="L71" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="N71" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="O71" t="s">
+        <v>168</v>
+      </c>
+      <c r="P71" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="R71" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="S71" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="T71" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="U71" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>232</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>235</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>235</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL71" t="s">
+        <v>305</v>
+      </c>
+      <c r="AM71" t="s">
+        <v>310</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA71" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BF71" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BG71" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="BH71" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ71" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL71" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="BM71" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="BN71" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="BO71" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="BP71" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="BQ71" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="BR71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS71" t="n">
+        <v>81.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72" t="s">
+        <v>142</v>
+      </c>
+      <c r="C72" t="n" s="2">
+        <v>45585.0</v>
+      </c>
+      <c r="D72" t="s">
+        <v>150</v>
+      </c>
+      <c r="E72" t="s">
+        <v>148</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H72" t="s">
+        <v>163</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K72" t="s">
+        <v>161</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="N72" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="O72" t="s">
+        <v>164</v>
+      </c>
+      <c r="P72" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="R72" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="S72" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T72" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U72" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V72" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AF72" t="s">
+        <v>233</v>
+      </c>
+      <c r="AG72" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>235</v>
+      </c>
+      <c r="AI72" t="s">
+        <v>235</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL72" t="s">
+        <v>306</v>
+      </c>
+      <c r="AM72" t="s">
+        <v>314</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AX72" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA72" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>227.0</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL72" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="BM72" t="n">
+        <v>227.0</v>
+      </c>
+      <c r="BN72" t="n">
+        <v>295.0</v>
+      </c>
+      <c r="BO72" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="BP72" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="BQ72" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="BR72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BS72" t="n">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>141</v>
+      </c>
+      <c r="B73" t="s">
+        <v>142</v>
+      </c>
+      <c r="C73" t="n" s="2">
+        <v>45585.0</v>
+      </c>
+      <c r="D73" t="s">
+        <v>149</v>
+      </c>
+      <c r="E73" t="s">
+        <v>160</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H73" t="s">
+        <v>161</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K73" t="s">
+        <v>161</v>
+      </c>
+      <c r="L73" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="N73" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="O73" t="s">
+        <v>175</v>
+      </c>
+      <c r="P73" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S73" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="T73" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="U73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V73" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG73" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH73" t="s">
+        <v>234</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>234</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL73" t="s">
+        <v>307</v>
+      </c>
+      <c r="AM73" t="s">
+        <v>320</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX73" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AY73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AZ73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA73" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BF73" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="BG73" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="BH73" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="BJ73" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL73" t="n">
+        <v>155.0</v>
+      </c>
+      <c r="BM73" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="BN73" t="n">
+        <v>315.0</v>
+      </c>
+      <c r="BO73" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="BP73" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="BQ73" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="BR73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS73" t="n">
+        <v>125.0</v>
       </c>
     </row>
   </sheetData>
